--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E221815-626C-FF42-97FF-1F6E84E506D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CEF211-0852-1546-A333-BA1155AB1EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="3240" windowWidth="19360" windowHeight="16220" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="6180" yWindow="2180" windowWidth="19360" windowHeight="16220" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>张叔叔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别（男/女）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DECE590-98AF-1248-BA5A-126497E44414}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -572,68 +580,74 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="10">
         <v>18599998888</v>
       </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:15">

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CEF211-0852-1546-A333-BA1155AB1EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE55CC76-E782-6049-AFD3-803F06AF1D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="2180" windowWidth="19360" windowHeight="16220" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="6140" yWindow="460" windowWidth="19360" windowHeight="16220" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="26">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -551,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DECE590-98AF-1248-BA5A-126497E44414}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1951,56 +1951,651 @@
       <c r="B40"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="1"/>
-      <c r="B41"/>
+      <c r="A41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4">
+        <v>2018</v>
+      </c>
+      <c r="K41"/>
+      <c r="O41" s="9"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="1"/>
-      <c r="B42"/>
+      <c r="A42" s="7">
+        <v>43126</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>TEXT(A42,"yyyy-mm-dd")</f>
+        <v>2018-01-26</v>
+      </c>
+      <c r="E42">
+        <v>20000</v>
+      </c>
+      <c r="F42">
+        <v>980.8</v>
+      </c>
+      <c r="G42" s="10">
+        <v>100076786899</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" ref="J42:J54" si="5">TEXT(A42,"yyyy-mm")</f>
+        <v>2018-01</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M42" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="1"/>
-      <c r="B43"/>
+      <c r="A43" s="7">
+        <v>43157</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" ref="D43:D54" si="6">TEXT(A43,"yyyy-mm-dd")</f>
+        <v>2018-02-26</v>
+      </c>
+      <c r="E43">
+        <v>20001</v>
+      </c>
+      <c r="F43">
+        <v>981.8</v>
+      </c>
+      <c r="G43" s="10">
+        <v>100076786900</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-02</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M43" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="1"/>
-      <c r="B44"/>
+      <c r="A44" s="7">
+        <v>43185</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2018-03-26</v>
+      </c>
+      <c r="E44">
+        <v>20002</v>
+      </c>
+      <c r="F44">
+        <v>982.8</v>
+      </c>
+      <c r="G44" s="10">
+        <v>100076786901</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-03</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M44" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="1"/>
-      <c r="B45"/>
+      <c r="A45" s="7">
+        <v>43216</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2018-04-26</v>
+      </c>
+      <c r="E45">
+        <v>20003</v>
+      </c>
+      <c r="F45">
+        <v>983.8</v>
+      </c>
+      <c r="G45" s="10">
+        <v>100076786902</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-04</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M45" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="1"/>
-      <c r="B46"/>
+      <c r="A46" s="7">
+        <v>43246</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2018-05-26</v>
+      </c>
+      <c r="E46">
+        <v>20004</v>
+      </c>
+      <c r="F46">
+        <v>984.8</v>
+      </c>
+      <c r="G46" s="10">
+        <v>100076786903</v>
+      </c>
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-05</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M46" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N46" s="9">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="1"/>
-      <c r="B47"/>
+      <c r="A47" s="7">
+        <v>43277</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2018-06-26</v>
+      </c>
+      <c r="E47">
+        <v>20005</v>
+      </c>
+      <c r="F47">
+        <v>985.8</v>
+      </c>
+      <c r="G47" s="10">
+        <v>100076786904</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-06</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M47" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
+      <c r="O47" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="1"/>
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1"/>
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1"/>
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1"/>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1"/>
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1"/>
-      <c r="B53"/>
+      <c r="A48" s="7">
+        <v>43307</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2018-07-26</v>
+      </c>
+      <c r="E48">
+        <v>20006</v>
+      </c>
+      <c r="F48">
+        <v>986.8</v>
+      </c>
+      <c r="G48" s="10">
+        <v>100076786905</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-07</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M48" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
+      <c r="O48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="7">
+        <v>43338</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2018-08-26</v>
+      </c>
+      <c r="E49">
+        <v>20007</v>
+      </c>
+      <c r="F49">
+        <v>987.8</v>
+      </c>
+      <c r="G49" s="10">
+        <v>100076786906</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-08</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M49" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
+      <c r="O49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="7">
+        <v>43369</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2018-09-26</v>
+      </c>
+      <c r="E50">
+        <v>20008</v>
+      </c>
+      <c r="F50">
+        <v>988.8</v>
+      </c>
+      <c r="G50" s="10">
+        <v>100076786907</v>
+      </c>
+      <c r="H50" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-09</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M50" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+      <c r="O50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="7">
+        <v>43399</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2018-10-26</v>
+      </c>
+      <c r="E51">
+        <v>20009</v>
+      </c>
+      <c r="F51">
+        <v>989.8</v>
+      </c>
+      <c r="G51" s="10">
+        <v>100076786908</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-10</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M51" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
+      <c r="O51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="7">
+        <v>43430</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2018-11-26</v>
+      </c>
+      <c r="E52">
+        <v>20010</v>
+      </c>
+      <c r="F52">
+        <v>990.8</v>
+      </c>
+      <c r="G52" s="10">
+        <v>100076786909</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-11</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M52" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+      <c r="O52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="7">
+        <v>43460</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2018-12-26</v>
+      </c>
+      <c r="E53">
+        <v>20011</v>
+      </c>
+      <c r="F53">
+        <v>991.8</v>
+      </c>
+      <c r="G53" s="10">
+        <v>100076786910</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-12</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M53" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
+      <c r="O53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="7">
+        <v>43342</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>2018-08-30</v>
+      </c>
+      <c r="E54">
+        <v>220012</v>
+      </c>
+      <c r="F54">
+        <v>2992.8</v>
+      </c>
+      <c r="G54" s="10">
+        <v>100076786911</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-08</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M54" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N54" s="9">
+        <v>0</v>
+      </c>
+      <c r="O54" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/Finance-master-local/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE55CC76-E782-6049-AFD3-803F06AF1D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85219DCB-58D9-6C43-B188-1C83AE07D297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6140" yWindow="460" windowWidth="19360" windowHeight="16220" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DECE590-98AF-1248-BA5A-126497E44414}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -664,10 +664,10 @@
         <f>TEXT(A7,"yyyy-mm-dd")</f>
         <v>2020-01-24</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>20000</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>980.8</v>
       </c>
       <c r="G7" s="10">
@@ -713,10 +713,10 @@
         <f t="shared" ref="D8:D18" si="1">TEXT(A8,"yyyy-mm-dd")</f>
         <v>2020-02-24</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>20000</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>980.8</v>
       </c>
       <c r="G8" s="10">
@@ -762,10 +762,10 @@
         <f t="shared" si="1"/>
         <v>2020-03-24</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>20000</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>980.8</v>
       </c>
       <c r="G9" s="10">
@@ -811,10 +811,10 @@
         <f t="shared" si="1"/>
         <v>2020-04-24</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>20000</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>980.8</v>
       </c>
       <c r="G10" s="10">
@@ -860,10 +860,10 @@
         <f t="shared" si="1"/>
         <v>2020-05-24</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>20000</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>980.8</v>
       </c>
       <c r="G11" s="10">
@@ -909,10 +909,10 @@
         <f t="shared" si="1"/>
         <v>2020-06-24</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>20000</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <v>980.8</v>
       </c>
       <c r="G12" s="10">
@@ -958,10 +958,10 @@
         <f t="shared" si="1"/>
         <v>2020-07-24</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <v>20000</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <v>980.8</v>
       </c>
       <c r="G13" s="10">
@@ -1007,10 +1007,10 @@
         <f t="shared" si="1"/>
         <v>2020-08-24</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>20000</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
         <v>980.8</v>
       </c>
       <c r="G14" s="10">
@@ -1056,10 +1056,10 @@
         <f t="shared" si="1"/>
         <v>2020-09-24</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <v>20000</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="9">
         <v>980.8</v>
       </c>
       <c r="G15" s="10">
@@ -1105,10 +1105,10 @@
         <f t="shared" si="1"/>
         <v>2020-10-24</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="9">
         <v>20000</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="9">
         <v>980.8</v>
       </c>
       <c r="G16" s="10">
@@ -1154,10 +1154,10 @@
         <f t="shared" si="1"/>
         <v>2020-11-24</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="9">
         <v>20000</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="9">
         <v>980.8</v>
       </c>
       <c r="G17" s="10">
@@ -1203,10 +1203,10 @@
         <f t="shared" si="1"/>
         <v>2020-12-24</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>20000</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <v>980.8</v>
       </c>
       <c r="G18" s="10">
@@ -1252,10 +1252,10 @@
         <f t="shared" ref="D19" si="2">TEXT(A19,"yyyy-mm-dd")</f>
         <v>2020-06-30</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>100000</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <v>9790</v>
       </c>
       <c r="G19" s="10">
@@ -1323,10 +1323,10 @@
         <f>TEXT(A24,"yyyy-mm-dd")</f>
         <v>2019-01-24</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="9">
         <v>20000</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="9">
         <v>980.8</v>
       </c>
       <c r="G24" s="10">
@@ -1372,10 +1372,10 @@
         <f t="shared" ref="D25:D36" si="4">TEXT(A25,"yyyy-mm-dd")</f>
         <v>2019-02-24</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="9">
         <v>20000</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="9">
         <v>980.8</v>
       </c>
       <c r="G25" s="10">
@@ -1421,10 +1421,10 @@
         <f t="shared" si="4"/>
         <v>2019-03-24</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="9">
         <v>20000</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="9">
         <v>980.8</v>
       </c>
       <c r="G26" s="10">
@@ -1470,10 +1470,10 @@
         <f t="shared" si="4"/>
         <v>2019-04-24</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="9">
         <v>20000</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="9">
         <v>980.8</v>
       </c>
       <c r="G27" s="10">
@@ -1519,10 +1519,10 @@
         <f t="shared" si="4"/>
         <v>2019-05-24</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="9">
         <v>20000</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="9">
         <v>980.8</v>
       </c>
       <c r="G28" s="10">
@@ -1568,10 +1568,10 @@
         <f t="shared" si="4"/>
         <v>2019-06-24</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="9">
         <v>20000</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="9">
         <v>980.8</v>
       </c>
       <c r="G29" s="10">
@@ -1617,10 +1617,10 @@
         <f t="shared" si="4"/>
         <v>2019-07-24</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="9">
         <v>20000</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="9">
         <v>980.8</v>
       </c>
       <c r="G30" s="10">
@@ -1666,10 +1666,10 @@
         <f t="shared" si="4"/>
         <v>2019-08-24</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="9">
         <v>20000</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="9">
         <v>980.8</v>
       </c>
       <c r="G31" s="10">
@@ -1715,10 +1715,10 @@
         <f t="shared" si="4"/>
         <v>2019-09-24</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="9">
         <v>20000</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="9">
         <v>980.8</v>
       </c>
       <c r="G32" s="10">
@@ -1764,10 +1764,10 @@
         <f t="shared" si="4"/>
         <v>2019-10-24</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="9">
         <v>20000</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="9">
         <v>980.8</v>
       </c>
       <c r="G33" s="10">
@@ -1813,10 +1813,10 @@
         <f t="shared" si="4"/>
         <v>2019-11-24</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="9">
         <v>20000</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="9">
         <v>980.8</v>
       </c>
       <c r="G34" s="10">
@@ -1862,10 +1862,10 @@
         <f t="shared" si="4"/>
         <v>2019-12-24</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="9">
         <v>20000</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="9">
         <v>980.8</v>
       </c>
       <c r="G35" s="10">
@@ -1911,11 +1911,11 @@
         <f t="shared" si="4"/>
         <v>2019-06-24</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="9">
         <v>100000</v>
       </c>
-      <c r="F36">
-        <v>9790</v>
+      <c r="F36" s="9">
+        <v>980.8</v>
       </c>
       <c r="G36" s="10">
         <v>100076786911</v>
@@ -1974,10 +1974,10 @@
         <f>TEXT(A42,"yyyy-mm-dd")</f>
         <v>2018-01-26</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="9">
         <v>20000</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="9">
         <v>980.8</v>
       </c>
       <c r="G42" s="10">
@@ -2023,10 +2023,10 @@
         <f t="shared" ref="D43:D54" si="6">TEXT(A43,"yyyy-mm-dd")</f>
         <v>2018-02-26</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="9">
         <v>20001</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="9">
         <v>981.8</v>
       </c>
       <c r="G43" s="10">
@@ -2072,10 +2072,10 @@
         <f t="shared" si="6"/>
         <v>2018-03-26</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="9">
         <v>20002</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="9">
         <v>982.8</v>
       </c>
       <c r="G44" s="10">
@@ -2121,10 +2121,10 @@
         <f t="shared" si="6"/>
         <v>2018-04-26</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="9">
         <v>20003</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="9">
         <v>983.8</v>
       </c>
       <c r="G45" s="10">
@@ -2170,10 +2170,10 @@
         <f t="shared" si="6"/>
         <v>2018-05-26</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="9">
         <v>20004</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="9">
         <v>984.8</v>
       </c>
       <c r="G46" s="10">
@@ -2219,10 +2219,10 @@
         <f t="shared" si="6"/>
         <v>2018-06-26</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="9">
         <v>20005</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="9">
         <v>985.8</v>
       </c>
       <c r="G47" s="10">
@@ -2268,10 +2268,10 @@
         <f t="shared" si="6"/>
         <v>2018-07-26</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="9">
         <v>20006</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="9">
         <v>986.8</v>
       </c>
       <c r="G48" s="10">
@@ -2317,10 +2317,10 @@
         <f t="shared" si="6"/>
         <v>2018-08-26</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="9">
         <v>20007</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="9">
         <v>987.8</v>
       </c>
       <c r="G49" s="10">
@@ -2366,10 +2366,10 @@
         <f t="shared" si="6"/>
         <v>2018-09-26</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="9">
         <v>20008</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="9">
         <v>988.8</v>
       </c>
       <c r="G50" s="10">
@@ -2415,10 +2415,10 @@
         <f t="shared" si="6"/>
         <v>2018-10-26</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="9">
         <v>20009</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="9">
         <v>989.8</v>
       </c>
       <c r="G51" s="10">
@@ -2464,10 +2464,10 @@
         <f t="shared" si="6"/>
         <v>2018-11-26</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="9">
         <v>20010</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="9">
         <v>990.8</v>
       </c>
       <c r="G52" s="10">
@@ -2513,10 +2513,10 @@
         <f t="shared" si="6"/>
         <v>2018-12-26</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="9">
         <v>20011</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="9">
         <v>991.8</v>
       </c>
       <c r="G53" s="10">
@@ -2562,10 +2562,10 @@
         <f t="shared" si="6"/>
         <v>2018-08-30</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="9">
         <v>220012</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="9">
         <v>2992.8</v>
       </c>
       <c r="G54" s="10">

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85219DCB-58D9-6C43-B188-1C83AE07D297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB55C8-6294-8940-B1A0-E74E0EADAF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="460" windowWidth="19360" windowHeight="16220" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="24280" yWindow="5300" windowWidth="19360" windowHeight="16220" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="马兰霞" sheetId="2" r:id="rId1"/>
+    <sheet name="袁伟强" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="56">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -136,6 +132,96 @@
     <t>性别（男/女）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>性别（男/女）</t>
+  </si>
+  <si>
+    <t>马兰霞</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>申报日期</t>
+  </si>
+  <si>
+    <t>所得项目小类</t>
+  </si>
+  <si>
+    <t>扣缴义务人</t>
+  </si>
+  <si>
+    <t>忽略不可修改</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>已申报税额</t>
+  </si>
+  <si>
+    <t>扣缴义务人纳税人识别号</t>
+  </si>
+  <si>
+    <t>主管税务机关</t>
+  </si>
+  <si>
+    <t>申报渠道</t>
+  </si>
+  <si>
+    <t>税款所属期</t>
+  </si>
+  <si>
+    <t>本期免税收入</t>
+  </si>
+  <si>
+    <t>本期减除费用</t>
+  </si>
+  <si>
+    <t>本期专项扣除</t>
+  </si>
+  <si>
+    <t>本期其他扣除</t>
+  </si>
+  <si>
+    <t>本期准予扣除的捐赠项目</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>正常工资薪金</t>
+  </si>
+  <si>
+    <t>中国华能集团有限公司</t>
+  </si>
+  <si>
+    <t>国家税务总局北京市西城区税务局</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>1月年终奖金</t>
+  </si>
+  <si>
+    <t>袁伟强</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>北京奇虎科技有限公司</t>
+  </si>
+  <si>
+    <t>国家税务总局北京市朝阳区税务局</t>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +322,9 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,10 +639,3674 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623FF9C-911A-A74A-878E-01E5CE99BE06}">
+  <dimension ref="A1:O53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="35" style="10" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18" style="9" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11">
+        <v>15128217012</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="7">
+        <v>43854</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>TEXT(A7,"yyyy-mm-dd")</f>
+        <v>2020-01-24</v>
+      </c>
+      <c r="E7" s="9">
+        <v>29422</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2346.6</v>
+      </c>
+      <c r="G7" s="10">
+        <v>100076786899</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7:J16" si="0">TEXT(A7,"yyyy-mm")</f>
+        <v>2020-01</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M7" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="7">
+        <v>43885</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" ref="D8:D16" si="1">TEXT(A8,"yyyy-mm-dd")</f>
+        <v>2020-02-24</v>
+      </c>
+      <c r="E8" s="9">
+        <v>28511</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2164.4</v>
+      </c>
+      <c r="G8" s="10">
+        <v>100076786900</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-02</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="7">
+        <v>43914</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-03-24</v>
+      </c>
+      <c r="E9" s="9">
+        <v>28120</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2086.1999999999998</v>
+      </c>
+      <c r="G9" s="10">
+        <v>100076786901</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-03</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M9" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="7">
+        <v>43945</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-04-24</v>
+      </c>
+      <c r="E10" s="9">
+        <v>23188</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1198.05</v>
+      </c>
+      <c r="G10" s="10">
+        <v>100076786902</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-04</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M10" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="7">
+        <v>43975</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-05-24</v>
+      </c>
+      <c r="E11" s="9">
+        <v>23598</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1261.8499999999999</v>
+      </c>
+      <c r="G11" s="10">
+        <v>100076786903</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-05</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M11" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="7">
+        <v>44006</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-06-24</v>
+      </c>
+      <c r="E12" s="9">
+        <v>25699</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1602</v>
+      </c>
+      <c r="G12" s="10">
+        <v>100076786904</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-06</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M12" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="7">
+        <v>44036</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-07-24</v>
+      </c>
+      <c r="E13" s="9">
+        <v>26988</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1859.8</v>
+      </c>
+      <c r="G13" s="10">
+        <v>100076786905</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-07</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M13" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="7">
+        <v>44067</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-08-24</v>
+      </c>
+      <c r="E14" s="9">
+        <v>26390</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1848.2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>100076786906</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-08</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M14" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="7">
+        <v>44098</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-09-24</v>
+      </c>
+      <c r="E15" s="9">
+        <v>26533</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1768.8</v>
+      </c>
+      <c r="G15" s="10">
+        <v>100076786907</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-09</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9">
+        <v>5001</v>
+      </c>
+      <c r="M15" s="9">
+        <v>4004</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="8"/>
+      <c r="K17"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="8"/>
+      <c r="K18"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="K19"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="K20"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="7">
+        <v>43489</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>TEXT(A21,"yyyy-mm-dd")</f>
+        <v>2019-01-24</v>
+      </c>
+      <c r="E21" s="9">
+        <v>34152</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3292.6</v>
+      </c>
+      <c r="G21" s="10">
+        <v>100076786899</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" t="str">
+        <f>TEXT(A21,"yyyy-mm")</f>
+        <v>2019-01</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M21" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="7">
+        <v>43490</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>TEXT(A22,"yyyy-mm-dd")</f>
+        <v>2019-01-25</v>
+      </c>
+      <c r="E22" s="9">
+        <v>79688</v>
+      </c>
+      <c r="F22" s="9">
+        <v>17007.14</v>
+      </c>
+      <c r="G22" s="10">
+        <v>100076786900</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" t="str">
+        <f>TEXT(A22,"yyyy-mm")</f>
+        <v>2019-01</v>
+      </c>
+      <c r="L22" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M22" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="7">
+        <v>43520</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" ref="D23:D34" si="2">TEXT(A23,"yyyy-mm-dd")</f>
+        <v>2019-02-24</v>
+      </c>
+      <c r="E23" s="9">
+        <v>34261</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3314.4</v>
+      </c>
+      <c r="G23" s="10">
+        <v>100076786900</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ref="J23:J34" si="3">TEXT(A23,"yyyy-mm")</f>
+        <v>2019-02</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M23" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="7">
+        <v>43548</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-03-24</v>
+      </c>
+      <c r="E24" s="9">
+        <v>33618</v>
+      </c>
+      <c r="F24" s="9">
+        <v>3185.8</v>
+      </c>
+      <c r="G24" s="10">
+        <v>100076786901</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-03</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M24" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="7">
+        <v>43579</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-04-24</v>
+      </c>
+      <c r="E25" s="9">
+        <v>33498</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3161.8</v>
+      </c>
+      <c r="G25" s="10">
+        <v>100076786902</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-04</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M25" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="7">
+        <v>43609</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05-24</v>
+      </c>
+      <c r="E26" s="9">
+        <v>34992</v>
+      </c>
+      <c r="F26" s="9">
+        <v>3460.6</v>
+      </c>
+      <c r="G26" s="10">
+        <v>100076786903</v>
+      </c>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-05</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M26" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="7">
+        <v>43640</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-06-24</v>
+      </c>
+      <c r="E27" s="9">
+        <v>34137</v>
+      </c>
+      <c r="F27" s="9">
+        <v>3289.6</v>
+      </c>
+      <c r="G27" s="10">
+        <v>100076786904</v>
+      </c>
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-06</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M27" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="7">
+        <v>43670</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-07-24</v>
+      </c>
+      <c r="E28" s="9">
+        <v>34311</v>
+      </c>
+      <c r="F28" s="9">
+        <v>3324.4</v>
+      </c>
+      <c r="G28" s="10">
+        <v>100076786905</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-07</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M28" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="7">
+        <v>43701</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-08-24</v>
+      </c>
+      <c r="E29" s="9">
+        <v>34112</v>
+      </c>
+      <c r="F29" s="9">
+        <v>3284.6</v>
+      </c>
+      <c r="G29" s="10">
+        <v>100076786906</v>
+      </c>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-08</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M29" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="7">
+        <v>43732</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-09-24</v>
+      </c>
+      <c r="E30" s="9">
+        <v>31522</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2766.6</v>
+      </c>
+      <c r="G30" s="10">
+        <v>100076786907</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-09</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M30" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-10-24</v>
+      </c>
+      <c r="E31" s="9">
+        <v>31125</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2687.2</v>
+      </c>
+      <c r="G31" s="10">
+        <v>100076786908</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-10</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M31" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="7">
+        <v>43793</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-11-24</v>
+      </c>
+      <c r="E32" s="9">
+        <v>32111</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2884.4</v>
+      </c>
+      <c r="G32" s="10">
+        <v>100076786909</v>
+      </c>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-11</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M32" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="7">
+        <v>43823</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-12-24</v>
+      </c>
+      <c r="E33" s="9">
+        <v>32431</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2948.4</v>
+      </c>
+      <c r="G33" s="10">
+        <v>100076786910</v>
+      </c>
+      <c r="H33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-12</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M33" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38"/>
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>2018</v>
+      </c>
+      <c r="K39"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="7">
+        <v>43126</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>TEXT(A40,"yyyy-mm-dd")</f>
+        <v>2018-01-26</v>
+      </c>
+      <c r="E40" s="9">
+        <v>32688</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2999.8</v>
+      </c>
+      <c r="G40" s="10">
+        <v>100076786899</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" t="str">
+        <f>TEXT(A40,"yyyy-mm")</f>
+        <v>2018-01</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M40" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="7">
+        <v>43126</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>TEXT(A41,"yyyy-mm-dd")</f>
+        <v>2018-01-26</v>
+      </c>
+      <c r="E41" s="9">
+        <v>73688</v>
+      </c>
+      <c r="F41" s="9">
+        <v>14907.14</v>
+      </c>
+      <c r="G41" s="10">
+        <v>100076786900</v>
+      </c>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" t="str">
+        <f>TEXT(A41,"yyyy-mm")</f>
+        <v>2018-01</v>
+      </c>
+      <c r="L41" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M41" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="7">
+        <v>43157</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" ref="D42:D53" si="4">TEXT(A42,"yyyy-mm-dd")</f>
+        <v>2018-02-26</v>
+      </c>
+      <c r="E42" s="9">
+        <v>32455</v>
+      </c>
+      <c r="F42" s="9">
+        <v>2953.2</v>
+      </c>
+      <c r="G42" s="10">
+        <v>100076786901</v>
+      </c>
+      <c r="H42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" ref="J42:J53" si="5">TEXT(A42,"yyyy-mm")</f>
+        <v>2018-02</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M42" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="7">
+        <v>43185</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-03-26</v>
+      </c>
+      <c r="E43" s="9">
+        <v>32132</v>
+      </c>
+      <c r="F43" s="9">
+        <v>2888.6</v>
+      </c>
+      <c r="G43" s="10">
+        <v>100076786901</v>
+      </c>
+      <c r="H43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-03</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M43" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="7">
+        <v>43216</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-04-26</v>
+      </c>
+      <c r="E44" s="9">
+        <v>33261</v>
+      </c>
+      <c r="F44" s="9">
+        <v>3114.4</v>
+      </c>
+      <c r="G44" s="10">
+        <v>100076786902</v>
+      </c>
+      <c r="H44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-04</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M44" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="7">
+        <v>43246</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-05-26</v>
+      </c>
+      <c r="E45" s="9">
+        <v>33241</v>
+      </c>
+      <c r="F45" s="9">
+        <v>3110.4</v>
+      </c>
+      <c r="G45" s="10">
+        <v>100076786903</v>
+      </c>
+      <c r="H45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-05</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M45" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="7">
+        <v>43277</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-06-26</v>
+      </c>
+      <c r="E46" s="9">
+        <v>32121</v>
+      </c>
+      <c r="F46" s="9">
+        <v>2886.4</v>
+      </c>
+      <c r="G46" s="10">
+        <v>100076786904</v>
+      </c>
+      <c r="H46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-06</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M46" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N46" s="9">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="7">
+        <v>43307</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-07-26</v>
+      </c>
+      <c r="E47" s="9">
+        <v>32155</v>
+      </c>
+      <c r="F47" s="9">
+        <v>2893.2</v>
+      </c>
+      <c r="G47" s="10">
+        <v>100076786905</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-07</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M47" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
+      <c r="O47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="7">
+        <v>43338</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-08-26</v>
+      </c>
+      <c r="E48" s="9">
+        <v>34451</v>
+      </c>
+      <c r="F48" s="9">
+        <v>3352.4</v>
+      </c>
+      <c r="G48" s="10">
+        <v>100076786906</v>
+      </c>
+      <c r="H48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-08</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M48" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
+      <c r="O48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="7">
+        <v>43369</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-09-26</v>
+      </c>
+      <c r="E49" s="9">
+        <v>34100</v>
+      </c>
+      <c r="F49" s="9">
+        <v>3282.2</v>
+      </c>
+      <c r="G49" s="10">
+        <v>100076786907</v>
+      </c>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" t="s">
+        <v>50</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-09</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M49" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
+      <c r="O49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="7">
+        <v>43399</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-10-26</v>
+      </c>
+      <c r="E50" s="9">
+        <v>31355</v>
+      </c>
+      <c r="F50" s="9">
+        <v>2733.2</v>
+      </c>
+      <c r="G50" s="10">
+        <v>100076786908</v>
+      </c>
+      <c r="H50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-10</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M50" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+      <c r="O50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="7">
+        <v>43430</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-11-26</v>
+      </c>
+      <c r="E51" s="9">
+        <v>33641</v>
+      </c>
+      <c r="F51" s="9">
+        <v>3190.4</v>
+      </c>
+      <c r="G51" s="10">
+        <v>100076786909</v>
+      </c>
+      <c r="H51" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-11</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M51" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
+      <c r="O51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="7">
+        <v>43460</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-12-26</v>
+      </c>
+      <c r="E52" s="9">
+        <v>32175</v>
+      </c>
+      <c r="F52" s="9">
+        <v>2897.2</v>
+      </c>
+      <c r="G52" s="10">
+        <v>100076786910</v>
+      </c>
+      <c r="H52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-12</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M52" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+      <c r="O52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="7"/>
+      <c r="B53" s="5"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="O53" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6B88E-DA55-AF43-AAC5-0097E9F8D4F2}">
+  <dimension ref="A1:O51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="35" style="10" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18" style="9" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="11">
+        <v>18210426033</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="7">
+        <v>43854</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>TEXT(A7,"yyyy-mm-dd")</f>
+        <v>2020-01-24</v>
+      </c>
+      <c r="E7" s="9">
+        <v>25638</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1589.8</v>
+      </c>
+      <c r="G7" s="10">
+        <v>100076786899</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7:J14" si="0">TEXT(A7,"yyyy-mm")</f>
+        <v>2020-01</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M7" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="7">
+        <v>43885</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" ref="D8:D14" si="1">TEXT(A8,"yyyy-mm-dd")</f>
+        <v>2020-02-24</v>
+      </c>
+      <c r="E8" s="9">
+        <v>22866</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1147.95</v>
+      </c>
+      <c r="G8" s="10">
+        <v>100076786900</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-02</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="7">
+        <v>43914</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-03-24</v>
+      </c>
+      <c r="E9" s="9">
+        <v>22371</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1070.93</v>
+      </c>
+      <c r="G9" s="10">
+        <v>100076786901</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-03</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M9" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="7">
+        <v>43945</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-04-24</v>
+      </c>
+      <c r="E10" s="9">
+        <v>22319</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1062.8399999999999</v>
+      </c>
+      <c r="G10" s="10">
+        <v>100076786902</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-04</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M10" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="7">
+        <v>43975</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-05-24</v>
+      </c>
+      <c r="E11" s="9">
+        <v>22300</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1059.8800000000001</v>
+      </c>
+      <c r="G11" s="10">
+        <v>100076786903</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-05</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M11" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="7">
+        <v>44006</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-06-24</v>
+      </c>
+      <c r="E12" s="9">
+        <v>22158</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1037.78</v>
+      </c>
+      <c r="G12" s="10">
+        <v>100076786904</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-06</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M12" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="7">
+        <v>44036</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-07-24</v>
+      </c>
+      <c r="E13" s="9">
+        <v>24569</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1412.94</v>
+      </c>
+      <c r="G13" s="10">
+        <v>100076786905</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-07</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M13" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="7">
+        <v>44067</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-08-24</v>
+      </c>
+      <c r="E14" s="9">
+        <v>24688</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1431.45</v>
+      </c>
+      <c r="G14" s="10">
+        <v>100076786906</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-08</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M14" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="7">
+        <v>44098</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>TEXT(A15,"yyyy-mm-dd")</f>
+        <v>2020-09-24</v>
+      </c>
+      <c r="E15" s="9">
+        <v>26864</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1835</v>
+      </c>
+      <c r="G15" s="10">
+        <v>100076786907</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="str">
+        <f>TEXT(A15,"yyyy-mm")</f>
+        <v>2020-09</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9">
+        <v>5001</v>
+      </c>
+      <c r="M15" s="9">
+        <v>4004</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="8"/>
+      <c r="K17"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="8"/>
+      <c r="K18"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="K19"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="K20"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="7">
+        <v>43489</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>TEXT(A21,"yyyy-mm-dd")</f>
+        <v>2019-01-24</v>
+      </c>
+      <c r="E21" s="9">
+        <v>26837</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1829.6</v>
+      </c>
+      <c r="G21" s="10">
+        <v>100076786899</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ref="J21:J33" si="2">TEXT(A21,"yyyy-mm")</f>
+        <v>2019-01</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M21" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="7">
+        <v>43520</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" ref="D22:D33" si="3">TEXT(A22,"yyyy-mm-dd")</f>
+        <v>2019-02-24</v>
+      </c>
+      <c r="E22" s="9">
+        <v>26682</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1798.6</v>
+      </c>
+      <c r="G22" s="10">
+        <v>100076786900</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-02</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M22" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="7">
+        <v>43548</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-03-24</v>
+      </c>
+      <c r="E23" s="9">
+        <v>27211</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1904.4</v>
+      </c>
+      <c r="G23" s="10">
+        <v>100076786901</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-03</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M23" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="7">
+        <v>43579</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-04-24</v>
+      </c>
+      <c r="E24" s="9">
+        <v>26498</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1761.8</v>
+      </c>
+      <c r="G24" s="10">
+        <v>100076786902</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-04</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M24" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="7">
+        <v>43609</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-05-24</v>
+      </c>
+      <c r="E25" s="9">
+        <v>26653</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1792.8</v>
+      </c>
+      <c r="G25" s="10">
+        <v>100076786903</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M25" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="7">
+        <v>43640</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-06-24</v>
+      </c>
+      <c r="E26" s="9">
+        <v>27988</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2059.8000000000002</v>
+      </c>
+      <c r="G26" s="10">
+        <v>100076786904</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-06</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M26" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="7">
+        <v>43670</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-07-24</v>
+      </c>
+      <c r="E27" s="9">
+        <v>27135</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1889.2</v>
+      </c>
+      <c r="G27" s="10">
+        <v>100076786905</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-07</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M27" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="7">
+        <v>43701</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-08-24</v>
+      </c>
+      <c r="E28" s="9">
+        <v>27933</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2048.8000000000002</v>
+      </c>
+      <c r="G28" s="10">
+        <v>100076786906</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-08</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M28" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="7">
+        <v>43732</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-09-24</v>
+      </c>
+      <c r="E29" s="9">
+        <v>27400</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1942.2</v>
+      </c>
+      <c r="G29" s="10">
+        <v>100076786907</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-09</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M29" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-10-24</v>
+      </c>
+      <c r="E30" s="9">
+        <v>27968</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2055.8000000000002</v>
+      </c>
+      <c r="G30" s="10">
+        <v>100076786908</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-10</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M30" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="7">
+        <v>43793</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-11-24</v>
+      </c>
+      <c r="E31" s="9">
+        <v>27936</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2049.4</v>
+      </c>
+      <c r="G31" s="10">
+        <v>100076786909</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-11</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M31" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="7">
+        <v>43823</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-12-24</v>
+      </c>
+      <c r="E32" s="9">
+        <v>32681</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2998.4</v>
+      </c>
+      <c r="G32" s="10">
+        <v>100076786910</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-12</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M32" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37"/>
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>2018</v>
+      </c>
+      <c r="K38"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="7">
+        <v>43126</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>TEXT(A39,"yyyy-mm-dd")</f>
+        <v>2018-01-26</v>
+      </c>
+      <c r="E39" s="9">
+        <v>26837</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1829.6</v>
+      </c>
+      <c r="G39" s="10">
+        <v>100076786899</v>
+      </c>
+      <c r="H39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" ref="J39:J51" si="4">TEXT(A39,"yyyy-mm")</f>
+        <v>2018-01</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M39" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="7">
+        <v>43157</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" ref="D40:D51" si="5">TEXT(A40,"yyyy-mm-dd")</f>
+        <v>2018-02-26</v>
+      </c>
+      <c r="E40" s="9">
+        <v>26682</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1798.6</v>
+      </c>
+      <c r="G40" s="10">
+        <v>100076786900</v>
+      </c>
+      <c r="H40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-02</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M40" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="7">
+        <v>43185</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-03-26</v>
+      </c>
+      <c r="E41" s="9">
+        <v>27211</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1904.4</v>
+      </c>
+      <c r="G41" s="10">
+        <v>100076786901</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-03</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M41" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="7">
+        <v>43216</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-04-26</v>
+      </c>
+      <c r="E42" s="9">
+        <v>26498</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1761.8</v>
+      </c>
+      <c r="G42" s="10">
+        <v>100076786902</v>
+      </c>
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-04</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M42" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="7">
+        <v>43246</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-05-26</v>
+      </c>
+      <c r="E43" s="9">
+        <v>26653</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1792.8</v>
+      </c>
+      <c r="G43" s="10">
+        <v>100076786903</v>
+      </c>
+      <c r="H43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-05</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M43" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="7">
+        <v>43277</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-06-26</v>
+      </c>
+      <c r="E44" s="9">
+        <v>27988</v>
+      </c>
+      <c r="F44" s="9">
+        <v>2059.8000000000002</v>
+      </c>
+      <c r="G44" s="10">
+        <v>100076786904</v>
+      </c>
+      <c r="H44" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-06</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M44" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="7">
+        <v>43307</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-07-26</v>
+      </c>
+      <c r="E45" s="9">
+        <v>27135</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1889.2</v>
+      </c>
+      <c r="G45" s="10">
+        <v>100076786905</v>
+      </c>
+      <c r="H45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-07</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M45" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="7">
+        <v>43338</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-08-26</v>
+      </c>
+      <c r="E46" s="9">
+        <v>27933</v>
+      </c>
+      <c r="F46" s="9">
+        <v>2048.8000000000002</v>
+      </c>
+      <c r="G46" s="10">
+        <v>100076786906</v>
+      </c>
+      <c r="H46" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-08</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M46" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N46" s="9">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="7">
+        <v>43369</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-09-26</v>
+      </c>
+      <c r="E47" s="9">
+        <v>27400</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1942.2</v>
+      </c>
+      <c r="G47" s="10">
+        <v>100076786907</v>
+      </c>
+      <c r="H47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-09</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M47" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
+      <c r="O47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="7">
+        <v>43399</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-10-26</v>
+      </c>
+      <c r="E48" s="9">
+        <v>27968</v>
+      </c>
+      <c r="F48" s="9">
+        <v>2055.8000000000002</v>
+      </c>
+      <c r="G48" s="10">
+        <v>100076786908</v>
+      </c>
+      <c r="H48" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-10</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M48" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
+      <c r="O48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="7">
+        <v>43430</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-11-26</v>
+      </c>
+      <c r="E49" s="9">
+        <v>27936</v>
+      </c>
+      <c r="F49" s="9">
+        <v>2049.4</v>
+      </c>
+      <c r="G49" s="10">
+        <v>100076786909</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" t="s">
+        <v>50</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-11</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M49" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N49" s="9">
+        <v>0</v>
+      </c>
+      <c r="O49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="7">
+        <v>43460</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-12-26</v>
+      </c>
+      <c r="E50" s="9">
+        <v>32681</v>
+      </c>
+      <c r="F50" s="9">
+        <v>2998.4</v>
+      </c>
+      <c r="G50" s="10">
+        <v>100076786910</v>
+      </c>
+      <c r="H50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="4"/>
+        <v>2018-12</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M50" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+      <c r="O50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="7"/>
+      <c r="B51" s="5"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="O51" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DECE590-98AF-1248-BA5A-126497E44414}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB55C8-6294-8940-B1A0-E74E0EADAF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D8E617-F13E-344F-B01A-166960DC493C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24280" yWindow="5300" windowWidth="19360" windowHeight="16220" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="16800" yWindow="10500" windowWidth="19360" windowHeight="16220" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="马兰霞" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="56">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -261,7 +261,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +331,12 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,1885 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623FF9C-911A-A74A-878E-01E5CE99BE06}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="35" style="10" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="9" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18" style="9" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11">
-        <v>15128217012</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="7">
-        <v>43854</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>TEXT(A7,"yyyy-mm-dd")</f>
-        <v>2020-01-24</v>
-      </c>
-      <c r="E7" s="9">
-        <v>29422</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2346.6</v>
-      </c>
-      <c r="G7" s="10">
-        <v>100076786899</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" ref="J7:J16" si="0">TEXT(A7,"yyyy-mm")</f>
-        <v>2020-01</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M7" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="7">
-        <v>43885</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" ref="D8:D16" si="1">TEXT(A8,"yyyy-mm-dd")</f>
-        <v>2020-02-24</v>
-      </c>
-      <c r="E8" s="9">
-        <v>28511</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2164.4</v>
-      </c>
-      <c r="G8" s="10">
-        <v>100076786900</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-02</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M8" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="7">
-        <v>43914</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-03-24</v>
-      </c>
-      <c r="E9" s="9">
-        <v>28120</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2086.1999999999998</v>
-      </c>
-      <c r="G9" s="10">
-        <v>100076786901</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-03</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M9" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="7">
-        <v>43945</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-04-24</v>
-      </c>
-      <c r="E10" s="9">
-        <v>23188</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1198.05</v>
-      </c>
-      <c r="G10" s="10">
-        <v>100076786902</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-04</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M10" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="7">
-        <v>43975</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-05-24</v>
-      </c>
-      <c r="E11" s="9">
-        <v>23598</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1261.8499999999999</v>
-      </c>
-      <c r="G11" s="10">
-        <v>100076786903</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-05</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M11" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="7">
-        <v>44006</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-06-24</v>
-      </c>
-      <c r="E12" s="9">
-        <v>25699</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1602</v>
-      </c>
-      <c r="G12" s="10">
-        <v>100076786904</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-06</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M12" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="7">
-        <v>44036</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-07-24</v>
-      </c>
-      <c r="E13" s="9">
-        <v>26988</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1859.8</v>
-      </c>
-      <c r="G13" s="10">
-        <v>100076786905</v>
-      </c>
-      <c r="H13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-07</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M13" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="7">
-        <v>44067</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-08-24</v>
-      </c>
-      <c r="E14" s="9">
-        <v>26390</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1848.2</v>
-      </c>
-      <c r="G14" s="10">
-        <v>100076786906</v>
-      </c>
-      <c r="H14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-08</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M14" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="7">
-        <v>44098</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-09-24</v>
-      </c>
-      <c r="E15" s="9">
-        <v>26533</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1768.8</v>
-      </c>
-      <c r="G15" s="10">
-        <v>100076786907</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-09</v>
-      </c>
-      <c r="K15" s="9">
-        <v>1</v>
-      </c>
-      <c r="L15" s="9">
-        <v>5001</v>
-      </c>
-      <c r="M15" s="9">
-        <v>4004</v>
-      </c>
-      <c r="N15" s="9">
-        <v>1</v>
-      </c>
-      <c r="O15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="8"/>
-      <c r="K17"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="8"/>
-      <c r="K18"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="K19"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20">
-        <v>2019</v>
-      </c>
-      <c r="K20"/>
-      <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="7">
-        <v>43489</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f>TEXT(A21,"yyyy-mm-dd")</f>
-        <v>2019-01-24</v>
-      </c>
-      <c r="E21" s="9">
-        <v>34152</v>
-      </c>
-      <c r="F21" s="9">
-        <v>3292.6</v>
-      </c>
-      <c r="G21" s="10">
-        <v>100076786899</v>
-      </c>
-      <c r="H21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" t="str">
-        <f>TEXT(A21,"yyyy-mm")</f>
-        <v>2019-01</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M21" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="7">
-        <v>43490</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f>TEXT(A22,"yyyy-mm-dd")</f>
-        <v>2019-01-25</v>
-      </c>
-      <c r="E22" s="9">
-        <v>79688</v>
-      </c>
-      <c r="F22" s="9">
-        <v>17007.14</v>
-      </c>
-      <c r="G22" s="10">
-        <v>100076786900</v>
-      </c>
-      <c r="H22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" t="str">
-        <f>TEXT(A22,"yyyy-mm")</f>
-        <v>2019-01</v>
-      </c>
-      <c r="L22" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M22" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="7">
-        <v>43520</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" ref="D23:D34" si="2">TEXT(A23,"yyyy-mm-dd")</f>
-        <v>2019-02-24</v>
-      </c>
-      <c r="E23" s="9">
-        <v>34261</v>
-      </c>
-      <c r="F23" s="9">
-        <v>3314.4</v>
-      </c>
-      <c r="G23" s="10">
-        <v>100076786900</v>
-      </c>
-      <c r="H23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" ref="J23:J34" si="3">TEXT(A23,"yyyy-mm")</f>
-        <v>2019-02</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M23" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="7">
-        <v>43548</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2019-03-24</v>
-      </c>
-      <c r="E24" s="9">
-        <v>33618</v>
-      </c>
-      <c r="F24" s="9">
-        <v>3185.8</v>
-      </c>
-      <c r="G24" s="10">
-        <v>100076786901</v>
-      </c>
-      <c r="H24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="3"/>
-        <v>2019-03</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M24" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="7">
-        <v>43579</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2019-04-24</v>
-      </c>
-      <c r="E25" s="9">
-        <v>33498</v>
-      </c>
-      <c r="F25" s="9">
-        <v>3161.8</v>
-      </c>
-      <c r="G25" s="10">
-        <v>100076786902</v>
-      </c>
-      <c r="H25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="3"/>
-        <v>2019-04</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M25" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="7">
-        <v>43609</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2019-05-24</v>
-      </c>
-      <c r="E26" s="9">
-        <v>34992</v>
-      </c>
-      <c r="F26" s="9">
-        <v>3460.6</v>
-      </c>
-      <c r="G26" s="10">
-        <v>100076786903</v>
-      </c>
-      <c r="H26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="3"/>
-        <v>2019-05</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M26" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="7">
-        <v>43640</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2019-06-24</v>
-      </c>
-      <c r="E27" s="9">
-        <v>34137</v>
-      </c>
-      <c r="F27" s="9">
-        <v>3289.6</v>
-      </c>
-      <c r="G27" s="10">
-        <v>100076786904</v>
-      </c>
-      <c r="H27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v>2019-06</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M27" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="7">
-        <v>43670</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2019-07-24</v>
-      </c>
-      <c r="E28" s="9">
-        <v>34311</v>
-      </c>
-      <c r="F28" s="9">
-        <v>3324.4</v>
-      </c>
-      <c r="G28" s="10">
-        <v>100076786905</v>
-      </c>
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="3"/>
-        <v>2019-07</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M28" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="7">
-        <v>43701</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2019-08-24</v>
-      </c>
-      <c r="E29" s="9">
-        <v>34112</v>
-      </c>
-      <c r="F29" s="9">
-        <v>3284.6</v>
-      </c>
-      <c r="G29" s="10">
-        <v>100076786906</v>
-      </c>
-      <c r="H29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v>2019-08</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M29" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="7">
-        <v>43732</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2019-09-24</v>
-      </c>
-      <c r="E30" s="9">
-        <v>31522</v>
-      </c>
-      <c r="F30" s="9">
-        <v>2766.6</v>
-      </c>
-      <c r="G30" s="10">
-        <v>100076786907</v>
-      </c>
-      <c r="H30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v>2019-09</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M30" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N30" s="9">
-        <v>0</v>
-      </c>
-      <c r="O30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="7">
-        <v>43762</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2019-10-24</v>
-      </c>
-      <c r="E31" s="9">
-        <v>31125</v>
-      </c>
-      <c r="F31" s="9">
-        <v>2687.2</v>
-      </c>
-      <c r="G31" s="10">
-        <v>100076786908</v>
-      </c>
-      <c r="H31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="3"/>
-        <v>2019-10</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M31" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-      <c r="O31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="7">
-        <v>43793</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2019-11-24</v>
-      </c>
-      <c r="E32" s="9">
-        <v>32111</v>
-      </c>
-      <c r="F32" s="9">
-        <v>2884.4</v>
-      </c>
-      <c r="G32" s="10">
-        <v>100076786909</v>
-      </c>
-      <c r="H32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="3"/>
-        <v>2019-11</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M32" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N32" s="9">
-        <v>0</v>
-      </c>
-      <c r="O32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="7">
-        <v>43823</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>2019-12-24</v>
-      </c>
-      <c r="E33" s="9">
-        <v>32431</v>
-      </c>
-      <c r="F33" s="9">
-        <v>2948.4</v>
-      </c>
-      <c r="G33" s="10">
-        <v>100076786910</v>
-      </c>
-      <c r="H33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="3"/>
-        <v>2019-12</v>
-      </c>
-      <c r="K33" s="9">
-        <v>0</v>
-      </c>
-      <c r="L33" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M33" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N33" s="9">
-        <v>0</v>
-      </c>
-      <c r="O33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="5"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="O34" s="9"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38"/>
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39">
-        <v>2018</v>
-      </c>
-      <c r="K39"/>
-      <c r="O39" s="9"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="7">
-        <v>43126</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="1" t="str">
-        <f>TEXT(A40,"yyyy-mm-dd")</f>
-        <v>2018-01-26</v>
-      </c>
-      <c r="E40" s="9">
-        <v>32688</v>
-      </c>
-      <c r="F40" s="9">
-        <v>2999.8</v>
-      </c>
-      <c r="G40" s="10">
-        <v>100076786899</v>
-      </c>
-      <c r="H40" t="s">
-        <v>49</v>
-      </c>
-      <c r="I40" t="s">
-        <v>50</v>
-      </c>
-      <c r="J40" t="str">
-        <f>TEXT(A40,"yyyy-mm")</f>
-        <v>2018-01</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M40" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="7">
-        <v>43126</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <f>TEXT(A41,"yyyy-mm-dd")</f>
-        <v>2018-01-26</v>
-      </c>
-      <c r="E41" s="9">
-        <v>73688</v>
-      </c>
-      <c r="F41" s="9">
-        <v>14907.14</v>
-      </c>
-      <c r="G41" s="10">
-        <v>100076786900</v>
-      </c>
-      <c r="H41" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" t="str">
-        <f>TEXT(A41,"yyyy-mm")</f>
-        <v>2018-01</v>
-      </c>
-      <c r="L41" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M41" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N41" s="9">
-        <v>0</v>
-      </c>
-      <c r="O41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="7">
-        <v>43157</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" ref="D42:D53" si="4">TEXT(A42,"yyyy-mm-dd")</f>
-        <v>2018-02-26</v>
-      </c>
-      <c r="E42" s="9">
-        <v>32455</v>
-      </c>
-      <c r="F42" s="9">
-        <v>2953.2</v>
-      </c>
-      <c r="G42" s="10">
-        <v>100076786901</v>
-      </c>
-      <c r="H42" t="s">
-        <v>49</v>
-      </c>
-      <c r="I42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" ref="J42:J53" si="5">TEXT(A42,"yyyy-mm")</f>
-        <v>2018-02</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M42" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N42" s="9">
-        <v>0</v>
-      </c>
-      <c r="O42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="7">
-        <v>43185</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-03-26</v>
-      </c>
-      <c r="E43" s="9">
-        <v>32132</v>
-      </c>
-      <c r="F43" s="9">
-        <v>2888.6</v>
-      </c>
-      <c r="G43" s="10">
-        <v>100076786901</v>
-      </c>
-      <c r="H43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I43" t="s">
-        <v>50</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-03</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M43" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c r="O43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="7">
-        <v>43216</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-04-26</v>
-      </c>
-      <c r="E44" s="9">
-        <v>33261</v>
-      </c>
-      <c r="F44" s="9">
-        <v>3114.4</v>
-      </c>
-      <c r="G44" s="10">
-        <v>100076786902</v>
-      </c>
-      <c r="H44" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-04</v>
-      </c>
-      <c r="K44" s="9">
-        <v>0</v>
-      </c>
-      <c r="L44" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M44" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N44" s="9">
-        <v>0</v>
-      </c>
-      <c r="O44" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="7">
-        <v>43246</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-05-26</v>
-      </c>
-      <c r="E45" s="9">
-        <v>33241</v>
-      </c>
-      <c r="F45" s="9">
-        <v>3110.4</v>
-      </c>
-      <c r="G45" s="10">
-        <v>100076786903</v>
-      </c>
-      <c r="H45" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-05</v>
-      </c>
-      <c r="K45" s="9">
-        <v>0</v>
-      </c>
-      <c r="L45" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M45" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N45" s="9">
-        <v>0</v>
-      </c>
-      <c r="O45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="7">
-        <v>43277</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-06-26</v>
-      </c>
-      <c r="E46" s="9">
-        <v>32121</v>
-      </c>
-      <c r="F46" s="9">
-        <v>2886.4</v>
-      </c>
-      <c r="G46" s="10">
-        <v>100076786904</v>
-      </c>
-      <c r="H46" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-06</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0</v>
-      </c>
-      <c r="L46" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M46" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N46" s="9">
-        <v>0</v>
-      </c>
-      <c r="O46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="7">
-        <v>43307</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-07-26</v>
-      </c>
-      <c r="E47" s="9">
-        <v>32155</v>
-      </c>
-      <c r="F47" s="9">
-        <v>2893.2</v>
-      </c>
-      <c r="G47" s="10">
-        <v>100076786905</v>
-      </c>
-      <c r="H47" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-07</v>
-      </c>
-      <c r="K47" s="9">
-        <v>0</v>
-      </c>
-      <c r="L47" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M47" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N47" s="9">
-        <v>0</v>
-      </c>
-      <c r="O47" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="7">
-        <v>43338</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-08-26</v>
-      </c>
-      <c r="E48" s="9">
-        <v>34451</v>
-      </c>
-      <c r="F48" s="9">
-        <v>3352.4</v>
-      </c>
-      <c r="G48" s="10">
-        <v>100076786906</v>
-      </c>
-      <c r="H48" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-08</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0</v>
-      </c>
-      <c r="L48" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M48" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N48" s="9">
-        <v>0</v>
-      </c>
-      <c r="O48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="7">
-        <v>43369</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-09-26</v>
-      </c>
-      <c r="E49" s="9">
-        <v>34100</v>
-      </c>
-      <c r="F49" s="9">
-        <v>3282.2</v>
-      </c>
-      <c r="G49" s="10">
-        <v>100076786907</v>
-      </c>
-      <c r="H49" t="s">
-        <v>49</v>
-      </c>
-      <c r="I49" t="s">
-        <v>50</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-09</v>
-      </c>
-      <c r="K49" s="9">
-        <v>0</v>
-      </c>
-      <c r="L49" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M49" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N49" s="9">
-        <v>0</v>
-      </c>
-      <c r="O49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="7">
-        <v>43399</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-10-26</v>
-      </c>
-      <c r="E50" s="9">
-        <v>31355</v>
-      </c>
-      <c r="F50" s="9">
-        <v>2733.2</v>
-      </c>
-      <c r="G50" s="10">
-        <v>100076786908</v>
-      </c>
-      <c r="H50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I50" t="s">
-        <v>50</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-10</v>
-      </c>
-      <c r="K50" s="9">
-        <v>0</v>
-      </c>
-      <c r="L50" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M50" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N50" s="9">
-        <v>0</v>
-      </c>
-      <c r="O50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="7">
-        <v>43430</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-11-26</v>
-      </c>
-      <c r="E51" s="9">
-        <v>33641</v>
-      </c>
-      <c r="F51" s="9">
-        <v>3190.4</v>
-      </c>
-      <c r="G51" s="10">
-        <v>100076786909</v>
-      </c>
-      <c r="H51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I51" t="s">
-        <v>50</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-11</v>
-      </c>
-      <c r="K51" s="9">
-        <v>0</v>
-      </c>
-      <c r="L51" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M51" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N51" s="9">
-        <v>0</v>
-      </c>
-      <c r="O51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="7">
-        <v>43460</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-12-26</v>
-      </c>
-      <c r="E52" s="9">
-        <v>32175</v>
-      </c>
-      <c r="F52" s="9">
-        <v>2897.2</v>
-      </c>
-      <c r="G52" s="10">
-        <v>100076786910</v>
-      </c>
-      <c r="H52" t="s">
-        <v>49</v>
-      </c>
-      <c r="I52" t="s">
-        <v>50</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-12</v>
-      </c>
-      <c r="K52" s="9">
-        <v>0</v>
-      </c>
-      <c r="L52" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M52" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N52" s="9">
-        <v>0</v>
-      </c>
-      <c r="O52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="7"/>
-      <c r="B53" s="5"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="O53" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6B88E-DA55-AF43-AAC5-0097E9F8D4F2}">
-  <dimension ref="A1:O51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -2553,13 +687,13 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B2" s="11">
-        <v>18210426033</v>
+        <v>15128217012</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2625,29 +759,29 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>TEXT(A7,"yyyy-mm-dd")</f>
         <v>2020-01-24</v>
       </c>
       <c r="E7" s="9">
-        <v>25638</v>
+        <v>29422</v>
       </c>
       <c r="F7" s="9">
-        <v>1589.8</v>
+        <v>2346.6</v>
       </c>
       <c r="G7" s="10">
         <v>100076786899</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
         <v>50</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J14" si="0">TEXT(A7,"yyyy-mm")</f>
+        <f t="shared" ref="J7:J15" si="0">TEXT(A7,"yyyy-mm")</f>
         <v>2020-01</v>
       </c>
       <c r="K7" s="9">
@@ -2674,23 +808,23 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" ref="D8:D14" si="1">TEXT(A8,"yyyy-mm-dd")</f>
+        <f t="shared" ref="D8:D15" si="1">TEXT(A8,"yyyy-mm-dd")</f>
         <v>2020-02-24</v>
       </c>
       <c r="E8" s="9">
-        <v>22866</v>
+        <v>28511</v>
       </c>
       <c r="F8" s="9">
-        <v>1147.95</v>
+        <v>2164.4</v>
       </c>
       <c r="G8" s="10">
         <v>100076786900</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
         <v>50</v>
@@ -2723,23 +857,23 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-03-24</v>
       </c>
       <c r="E9" s="9">
-        <v>22371</v>
+        <v>28120</v>
       </c>
       <c r="F9" s="9">
-        <v>1070.93</v>
+        <v>2086.1999999999998</v>
       </c>
       <c r="G9" s="10">
         <v>100076786901</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
@@ -2772,23 +906,23 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-04-24</v>
       </c>
       <c r="E10" s="9">
-        <v>22319</v>
+        <v>23188</v>
       </c>
       <c r="F10" s="9">
-        <v>1062.8399999999999</v>
+        <v>1198.05</v>
       </c>
       <c r="G10" s="10">
         <v>100076786902</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
         <v>50</v>
@@ -2821,23 +955,23 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-05-24</v>
       </c>
       <c r="E11" s="9">
-        <v>22300</v>
+        <v>23598</v>
       </c>
       <c r="F11" s="9">
-        <v>1059.8800000000001</v>
+        <v>1261.8499999999999</v>
       </c>
       <c r="G11" s="10">
         <v>100076786903</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
         <v>50</v>
@@ -2870,23 +1004,23 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-06-24</v>
       </c>
       <c r="E12" s="9">
-        <v>22158</v>
+        <v>25699</v>
       </c>
       <c r="F12" s="9">
-        <v>1037.78</v>
+        <v>1602</v>
       </c>
       <c r="G12" s="10">
         <v>100076786904</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
         <v>50</v>
@@ -2919,23 +1053,23 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-07-24</v>
       </c>
       <c r="E13" s="9">
-        <v>24569</v>
+        <v>26988</v>
       </c>
       <c r="F13" s="9">
-        <v>1412.94</v>
+        <v>1859.8</v>
       </c>
       <c r="G13" s="10">
         <v>100076786905</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
         <v>50</v>
@@ -2968,23 +1102,23 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-08-24</v>
       </c>
       <c r="E14" s="9">
-        <v>24688</v>
+        <v>26390</v>
       </c>
       <c r="F14" s="9">
-        <v>1431.45</v>
+        <v>1848.2</v>
       </c>
       <c r="G14" s="10">
         <v>100076786906</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
         <v>50</v>
@@ -3017,29 +1151,29 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>TEXT(A15,"yyyy-mm-dd")</f>
+        <f t="shared" si="1"/>
         <v>2020-09-24</v>
       </c>
       <c r="E15" s="9">
-        <v>26864</v>
+        <v>26533</v>
       </c>
       <c r="F15" s="9">
-        <v>1835</v>
+        <v>1768.8</v>
       </c>
       <c r="G15" s="10">
         <v>100076786907</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
         <v>50</v>
       </c>
       <c r="J15" t="str">
-        <f>TEXT(A15,"yyyy-mm")</f>
+        <f t="shared" si="0"/>
         <v>2020-09</v>
       </c>
       <c r="K15" s="9">
@@ -3098,13 +1232,1357 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>TEXT(A21,"yyyy-mm-dd")</f>
         <v>2019-01-24</v>
       </c>
       <c r="E21" s="9">
+        <v>34152</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3292.6</v>
+      </c>
+      <c r="G21" s="10">
+        <v>100076786899</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" t="str">
+        <f>TEXT(A21,"yyyy-mm")</f>
+        <v>2019-01</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M21" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="7">
+        <v>43490</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>TEXT(A22,"yyyy-mm-dd")</f>
+        <v>2019-01-25</v>
+      </c>
+      <c r="E22" s="9">
+        <v>79688</v>
+      </c>
+      <c r="F22" s="9">
+        <v>17007.14</v>
+      </c>
+      <c r="G22" s="10">
+        <v>100076786900</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" t="str">
+        <f>TEXT(A22,"yyyy-mm")</f>
+        <v>2019-01</v>
+      </c>
+      <c r="L22" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M22" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="7">
+        <v>43520</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" ref="D23:D33" si="2">TEXT(A23,"yyyy-mm-dd")</f>
+        <v>2019-02-24</v>
+      </c>
+      <c r="E23" s="9">
+        <v>34261</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3314.4</v>
+      </c>
+      <c r="G23" s="10">
+        <v>100076786900</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ref="J23:J33" si="3">TEXT(A23,"yyyy-mm")</f>
+        <v>2019-02</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M23" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="7">
+        <v>43548</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-03-24</v>
+      </c>
+      <c r="E24" s="9">
+        <v>33618</v>
+      </c>
+      <c r="F24" s="9">
+        <v>3185.8</v>
+      </c>
+      <c r="G24" s="10">
+        <v>100076786901</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-03</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M24" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="7">
+        <v>43579</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-04-24</v>
+      </c>
+      <c r="E25" s="9">
+        <v>33498</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3161.8</v>
+      </c>
+      <c r="G25" s="10">
+        <v>100076786902</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-04</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M25" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="7">
+        <v>43609</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-05-24</v>
+      </c>
+      <c r="E26" s="9">
+        <v>34992</v>
+      </c>
+      <c r="F26" s="9">
+        <v>3460.6</v>
+      </c>
+      <c r="G26" s="10">
+        <v>100076786903</v>
+      </c>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-05</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M26" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="7">
+        <v>43640</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-06-24</v>
+      </c>
+      <c r="E27" s="9">
+        <v>34137</v>
+      </c>
+      <c r="F27" s="9">
+        <v>3289.6</v>
+      </c>
+      <c r="G27" s="10">
+        <v>100076786904</v>
+      </c>
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-06</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M27" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="7">
+        <v>43670</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-07-24</v>
+      </c>
+      <c r="E28" s="9">
+        <v>34311</v>
+      </c>
+      <c r="F28" s="9">
+        <v>3324.4</v>
+      </c>
+      <c r="G28" s="10">
+        <v>100076786905</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-07</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M28" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="7">
+        <v>43701</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-08-24</v>
+      </c>
+      <c r="E29" s="9">
+        <v>34112</v>
+      </c>
+      <c r="F29" s="9">
+        <v>3284.6</v>
+      </c>
+      <c r="G29" s="10">
+        <v>100076786906</v>
+      </c>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-08</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M29" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="7">
+        <v>43732</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-09-24</v>
+      </c>
+      <c r="E30" s="9">
+        <v>31522</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2766.6</v>
+      </c>
+      <c r="G30" s="10">
+        <v>100076786907</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-09</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M30" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-10-24</v>
+      </c>
+      <c r="E31" s="9">
+        <v>31125</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2687.2</v>
+      </c>
+      <c r="G31" s="10">
+        <v>100076786908</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-10</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M31" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="7">
+        <v>43793</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-11-24</v>
+      </c>
+      <c r="E32" s="9">
+        <v>32111</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2884.4</v>
+      </c>
+      <c r="G32" s="10">
+        <v>100076786909</v>
+      </c>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-11</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M32" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="7">
+        <v>43823</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>2019-12-24</v>
+      </c>
+      <c r="E33" s="9">
+        <v>32431</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2948.4</v>
+      </c>
+      <c r="G33" s="10">
+        <v>100076786910</v>
+      </c>
+      <c r="H33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v>2019-12</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M33" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38"/>
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="K39"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="7"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="7"/>
+      <c r="B42" s="3"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="7"/>
+      <c r="B43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="7"/>
+      <c r="B44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="7"/>
+      <c r="B45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="7"/>
+      <c r="B46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="7"/>
+      <c r="B47" s="3"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="7"/>
+      <c r="B48" s="3"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="7"/>
+      <c r="B49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="7"/>
+      <c r="B50" s="3"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="7"/>
+      <c r="B51" s="3"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="7"/>
+      <c r="B52" s="3"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="7"/>
+      <c r="B53" s="12"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="O53" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6B88E-DA55-AF43-AAC5-0097E9F8D4F2}">
+  <dimension ref="A1:O53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="35" style="10" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18" style="9" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="11">
+        <v>18210426033</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="7">
+        <v>43854</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>TEXT(A7,"yyyy-mm-dd")</f>
+        <v>2020-01-24</v>
+      </c>
+      <c r="E7" s="9">
+        <v>25638</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1589.8</v>
+      </c>
+      <c r="G7" s="10">
+        <v>100076786899</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7:J14" si="0">TEXT(A7,"yyyy-mm")</f>
+        <v>2020-01</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M7" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="7">
+        <v>43885</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" ref="D8:D14" si="1">TEXT(A8,"yyyy-mm-dd")</f>
+        <v>2020-02-24</v>
+      </c>
+      <c r="E8" s="9">
+        <v>22866</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1147.95</v>
+      </c>
+      <c r="G8" s="10">
+        <v>100076786900</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-02</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="7">
+        <v>43914</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-03-24</v>
+      </c>
+      <c r="E9" s="9">
+        <v>22371</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1070.93</v>
+      </c>
+      <c r="G9" s="10">
+        <v>100076786901</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-03</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M9" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="7">
+        <v>43945</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-04-24</v>
+      </c>
+      <c r="E10" s="9">
+        <v>22319</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1062.8399999999999</v>
+      </c>
+      <c r="G10" s="10">
+        <v>100076786902</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-04</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M10" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="7">
+        <v>43975</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-05-24</v>
+      </c>
+      <c r="E11" s="9">
+        <v>22300</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1059.8800000000001</v>
+      </c>
+      <c r="G11" s="10">
+        <v>100076786903</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-05</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M11" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="7">
+        <v>44006</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-06-24</v>
+      </c>
+      <c r="E12" s="9">
+        <v>22158</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1037.78</v>
+      </c>
+      <c r="G12" s="10">
+        <v>100076786904</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-06</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M12" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="7">
+        <v>44036</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-07-24</v>
+      </c>
+      <c r="E13" s="9">
+        <v>24569</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1412.94</v>
+      </c>
+      <c r="G13" s="10">
+        <v>100076786905</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-07</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M13" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="7">
+        <v>44067</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-08-24</v>
+      </c>
+      <c r="E14" s="9">
+        <v>24688</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1431.45</v>
+      </c>
+      <c r="G14" s="10">
+        <v>100076786906</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-08</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M14" s="9">
+        <v>4003</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="7">
+        <v>44098</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>TEXT(A15,"yyyy-mm-dd")</f>
+        <v>2020-09-24</v>
+      </c>
+      <c r="E15" s="9">
+        <v>26864</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1835</v>
+      </c>
+      <c r="G15" s="10">
+        <v>100076786907</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="str">
+        <f>TEXT(A15,"yyyy-mm")</f>
+        <v>2020-09</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9">
+        <v>5001</v>
+      </c>
+      <c r="M15" s="9">
+        <v>4004</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="8"/>
+      <c r="K17"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="8"/>
+      <c r="K18"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="K19"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="K20"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="7">
+        <v>43489</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>TEXT(A21,"yyyy-mm-dd")</f>
+        <v>2019-01-24</v>
+      </c>
+      <c r="E21" s="9">
         <v>26837</v>
       </c>
       <c r="F21" s="9">
@@ -3120,7 +2598,7 @@
         <v>50</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" ref="J21:J33" si="2">TEXT(A21,"yyyy-mm")</f>
+        <f t="shared" ref="J21:J32" si="2">TEXT(A21,"yyyy-mm")</f>
         <v>2019-01</v>
       </c>
       <c r="K21" s="9">
@@ -3150,7 +2628,7 @@
         <v>54</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" ref="D22:D33" si="3">TEXT(A22,"yyyy-mm-dd")</f>
+        <f t="shared" ref="D22:D32" si="3">TEXT(A22,"yyyy-mm-dd")</f>
         <v>2019-02-24</v>
       </c>
       <c r="E22" s="9">
@@ -3691,610 +3169,120 @@
       <c r="B37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38">
-        <v>2018</v>
-      </c>
+      <c r="A38"/>
+      <c r="B38"/>
       <c r="K38"/>
       <c r="O38" s="9"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="7">
-        <v>43126</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="1" t="str">
-        <f>TEXT(A39,"yyyy-mm-dd")</f>
-        <v>2018-01-26</v>
-      </c>
-      <c r="E39" s="9">
-        <v>26837</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1829.6</v>
-      </c>
-      <c r="G39" s="10">
-        <v>100076786899</v>
-      </c>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" ref="J39:J51" si="4">TEXT(A39,"yyyy-mm")</f>
-        <v>2018-01</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M39" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
+      <c r="A39" s="7"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="7">
-        <v>43157</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="1" t="str">
-        <f t="shared" ref="D40:D51" si="5">TEXT(A40,"yyyy-mm-dd")</f>
-        <v>2018-02-26</v>
-      </c>
-      <c r="E40" s="9">
-        <v>26682</v>
-      </c>
-      <c r="F40" s="9">
-        <v>1798.6</v>
-      </c>
-      <c r="G40" s="10">
-        <v>100076786900</v>
-      </c>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I40" t="s">
-        <v>50</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-02</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M40" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
+      <c r="A40" s="7"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="7">
-        <v>43185</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-03-26</v>
-      </c>
-      <c r="E41" s="9">
-        <v>27211</v>
-      </c>
-      <c r="F41" s="9">
-        <v>1904.4</v>
-      </c>
-      <c r="G41" s="10">
-        <v>100076786901</v>
-      </c>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I41" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-03</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M41" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N41" s="9">
-        <v>0</v>
-      </c>
-      <c r="O41" s="9">
-        <v>0</v>
-      </c>
+      <c r="A41" s="7"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="O41" s="9"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="7">
-        <v>43216</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-04-26</v>
-      </c>
-      <c r="E42" s="9">
-        <v>26498</v>
-      </c>
-      <c r="F42" s="9">
-        <v>1761.8</v>
-      </c>
-      <c r="G42" s="10">
-        <v>100076786902</v>
-      </c>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-      <c r="I42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-04</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M42" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N42" s="9">
-        <v>0</v>
-      </c>
-      <c r="O42" s="9">
-        <v>0</v>
-      </c>
+      <c r="A42" s="7"/>
+      <c r="B42" s="3"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="O42" s="9"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="7">
-        <v>43246</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-05-26</v>
-      </c>
-      <c r="E43" s="9">
-        <v>26653</v>
-      </c>
-      <c r="F43" s="9">
-        <v>1792.8</v>
-      </c>
-      <c r="G43" s="10">
-        <v>100076786903</v>
-      </c>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" t="s">
-        <v>50</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-05</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M43" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c r="O43" s="9">
-        <v>0</v>
-      </c>
+      <c r="A43" s="7"/>
+      <c r="B43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="O43" s="9"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="7">
-        <v>43277</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-06-26</v>
-      </c>
-      <c r="E44" s="9">
-        <v>27988</v>
-      </c>
-      <c r="F44" s="9">
-        <v>2059.8000000000002</v>
-      </c>
-      <c r="G44" s="10">
-        <v>100076786904</v>
-      </c>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-06</v>
-      </c>
-      <c r="K44" s="9">
-        <v>0</v>
-      </c>
-      <c r="L44" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M44" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N44" s="9">
-        <v>0</v>
-      </c>
-      <c r="O44" s="9">
-        <v>0</v>
-      </c>
+      <c r="A44" s="7"/>
+      <c r="B44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="O44" s="9"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="7">
-        <v>43307</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-07-26</v>
-      </c>
-      <c r="E45" s="9">
-        <v>27135</v>
-      </c>
-      <c r="F45" s="9">
-        <v>1889.2</v>
-      </c>
-      <c r="G45" s="10">
-        <v>100076786905</v>
-      </c>
-      <c r="H45" t="s">
-        <v>55</v>
-      </c>
-      <c r="I45" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-07</v>
-      </c>
-      <c r="K45" s="9">
-        <v>0</v>
-      </c>
-      <c r="L45" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M45" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N45" s="9">
-        <v>0</v>
-      </c>
-      <c r="O45" s="9">
-        <v>0</v>
-      </c>
+      <c r="A45" s="7"/>
+      <c r="B45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="O45" s="9"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="7">
-        <v>43338</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-08-26</v>
-      </c>
-      <c r="E46" s="9">
-        <v>27933</v>
-      </c>
-      <c r="F46" s="9">
-        <v>2048.8000000000002</v>
-      </c>
-      <c r="G46" s="10">
-        <v>100076786906</v>
-      </c>
-      <c r="H46" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-08</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0</v>
-      </c>
-      <c r="L46" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M46" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N46" s="9">
-        <v>0</v>
-      </c>
-      <c r="O46" s="9">
-        <v>0</v>
-      </c>
+      <c r="A46" s="7"/>
+      <c r="B46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="O46" s="9"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="7">
-        <v>43369</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-09-26</v>
-      </c>
-      <c r="E47" s="9">
-        <v>27400</v>
-      </c>
-      <c r="F47" s="9">
-        <v>1942.2</v>
-      </c>
-      <c r="G47" s="10">
-        <v>100076786907</v>
-      </c>
-      <c r="H47" t="s">
-        <v>55</v>
-      </c>
-      <c r="I47" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-09</v>
-      </c>
-      <c r="K47" s="9">
-        <v>0</v>
-      </c>
-      <c r="L47" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M47" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N47" s="9">
-        <v>0</v>
-      </c>
-      <c r="O47" s="9">
-        <v>0</v>
-      </c>
+      <c r="A47" s="7"/>
+      <c r="B47" s="3"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="7">
-        <v>43399</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-10-26</v>
-      </c>
-      <c r="E48" s="9">
-        <v>27968</v>
-      </c>
-      <c r="F48" s="9">
-        <v>2055.8000000000002</v>
-      </c>
-      <c r="G48" s="10">
-        <v>100076786908</v>
-      </c>
-      <c r="H48" t="s">
-        <v>55</v>
-      </c>
-      <c r="I48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-10</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0</v>
-      </c>
-      <c r="L48" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M48" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N48" s="9">
-        <v>0</v>
-      </c>
-      <c r="O48" s="9">
-        <v>0</v>
-      </c>
+      <c r="A48" s="7"/>
+      <c r="B48" s="3"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="O48" s="9"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="7">
-        <v>43430</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-11-26</v>
-      </c>
-      <c r="E49" s="9">
-        <v>27936</v>
-      </c>
-      <c r="F49" s="9">
-        <v>2049.4</v>
-      </c>
-      <c r="G49" s="10">
-        <v>100076786909</v>
-      </c>
-      <c r="H49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I49" t="s">
-        <v>50</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-11</v>
-      </c>
-      <c r="K49" s="9">
-        <v>0</v>
-      </c>
-      <c r="L49" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M49" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N49" s="9">
-        <v>0</v>
-      </c>
-      <c r="O49" s="9">
-        <v>0</v>
-      </c>
+      <c r="A49" s="7"/>
+      <c r="B49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="7">
-        <v>43460</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>2018-12-26</v>
-      </c>
-      <c r="E50" s="9">
-        <v>32681</v>
-      </c>
-      <c r="F50" s="9">
-        <v>2998.4</v>
-      </c>
-      <c r="G50" s="10">
-        <v>100076786910</v>
-      </c>
-      <c r="H50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I50" t="s">
-        <v>50</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="4"/>
-        <v>2018-12</v>
-      </c>
-      <c r="K50" s="9">
-        <v>0</v>
-      </c>
-      <c r="L50" s="9">
-        <v>5000</v>
-      </c>
-      <c r="M50" s="9">
-        <v>4003</v>
-      </c>
-      <c r="N50" s="9">
-        <v>0</v>
-      </c>
-      <c r="O50" s="9">
-        <v>0</v>
-      </c>
+      <c r="A50" s="7"/>
+      <c r="B50" s="3"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="O50" s="9"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="7"/>
-      <c r="B51" s="5"/>
+      <c r="B51" s="12"/>
       <c r="D51" s="1"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="B53" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D8E617-F13E-344F-B01A-166960DC493C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7166CDCB-59D1-EC47-A326-DFE7489ED429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="10500" windowWidth="19360" windowHeight="16220" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="11160" yWindow="1040" windowWidth="18320" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="马兰霞" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -654,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623FF9C-911A-A74A-878E-01E5CE99BE06}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" activeCellId="1" sqref="F14 D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1112,7 +1118,7 @@
         <v>26390</v>
       </c>
       <c r="F14" s="9">
-        <v>1848.2</v>
+        <v>1740.2</v>
       </c>
       <c r="G14" s="10">
         <v>100076786906</v>
@@ -1998,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6B88E-DA55-AF43-AAC5-0097E9F8D4F2}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3292,10 +3298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DECE590-98AF-1248-BA5A-126497E44414}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5338,6 +5344,98 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60" spans="1:15">
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7166CDCB-59D1-EC47-A326-DFE7489ED429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82463BF-BB3F-9E4D-826C-AF2B98C0B0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="1040" windowWidth="18320" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="9400" yWindow="460" windowWidth="18320" windowHeight="15620" activeTab="1" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="马兰霞" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="55">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>其他</t>
-  </si>
-  <si>
-    <t>1月年终奖金</t>
   </si>
   <si>
     <t>袁伟强</t>
@@ -660,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623FF9C-911A-A74A-878E-01E5CE99BE06}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" activeCellId="1" sqref="F14 D22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1283,8 +1280,8 @@
       <c r="A22" s="7">
         <v>43490</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
@@ -2004,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6B88E-DA55-AF43-AAC5-0097E9F8D4F2}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H31" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -2037,13 +2034,13 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="11">
         <v>18210426033</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2109,7 +2106,7 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>TEXT(A7,"yyyy-mm-dd")</f>
@@ -2125,7 +2122,7 @@
         <v>100076786899</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
         <v>50</v>
@@ -2158,7 +2155,7 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ref="D8:D14" si="1">TEXT(A8,"yyyy-mm-dd")</f>
@@ -2174,7 +2171,7 @@
         <v>100076786900</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
         <v>50</v>
@@ -2207,7 +2204,7 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2223,7 +2220,7 @@
         <v>100076786901</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
         <v>50</v>
@@ -2256,7 +2253,7 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2272,7 +2269,7 @@
         <v>100076786902</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
         <v>50</v>
@@ -2305,7 +2302,7 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2321,7 +2318,7 @@
         <v>100076786903</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
         <v>50</v>
@@ -2354,7 +2351,7 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2370,7 +2367,7 @@
         <v>100076786904</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
         <v>50</v>
@@ -2403,7 +2400,7 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2419,7 +2416,7 @@
         <v>100076786905</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
         <v>50</v>
@@ -2452,7 +2449,7 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2468,7 +2465,7 @@
         <v>100076786906</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
         <v>50</v>
@@ -2501,7 +2498,7 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>TEXT(A15,"yyyy-mm-dd")</f>
@@ -2517,7 +2514,7 @@
         <v>100076786907</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
         <v>50</v>
@@ -2582,7 +2579,7 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>TEXT(A21,"yyyy-mm-dd")</f>
@@ -2598,7 +2595,7 @@
         <v>100076786899</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
         <v>50</v>
@@ -2631,7 +2628,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" ref="D22:D32" si="3">TEXT(A22,"yyyy-mm-dd")</f>
@@ -2647,7 +2644,7 @@
         <v>100076786900</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
         <v>50</v>
@@ -2680,7 +2677,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2696,7 +2693,7 @@
         <v>100076786901</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
         <v>50</v>
@@ -2729,7 +2726,7 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2745,7 +2742,7 @@
         <v>100076786902</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s">
         <v>50</v>
@@ -2778,7 +2775,7 @@
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2794,7 +2791,7 @@
         <v>100076786903</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
         <v>50</v>
@@ -2827,7 +2824,7 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2843,7 +2840,7 @@
         <v>100076786904</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
         <v>50</v>
@@ -2876,7 +2873,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2892,7 +2889,7 @@
         <v>100076786905</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I27" t="s">
         <v>50</v>
@@ -2925,7 +2922,7 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2941,7 +2938,7 @@
         <v>100076786906</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I28" t="s">
         <v>50</v>
@@ -2974,7 +2971,7 @@
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2990,7 +2987,7 @@
         <v>100076786907</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
         <v>50</v>
@@ -3023,7 +3020,7 @@
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3039,7 +3036,7 @@
         <v>100076786908</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
         <v>50</v>
@@ -3072,7 +3069,7 @@
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3088,7 +3085,7 @@
         <v>100076786909</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s">
         <v>50</v>
@@ -3121,7 +3118,7 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3137,7 +3134,7 @@
         <v>100076786910</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s">
         <v>50</v>
@@ -3300,8 +3297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DECE590-98AF-1248-BA5A-126497E44414}">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC802FA-3490-304C-852A-DFD2F6F6B1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF8DD64-EA11-FE40-964C-E14458B03BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="460" windowWidth="22460" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="3280" yWindow="4100" windowWidth="22460" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="伟强" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="54">
   <si>
     <t>姓名</t>
   </si>
@@ -158,6 +158,70 @@
   </si>
   <si>
     <t>袁伟强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一社会信用代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任职受雇日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一社会信用代码1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +330,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,13 +653,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6B88E-DA55-AF43-AAC5-0097E9F8D4F2}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" customWidth="1"/>
@@ -597,7 +667,7 @@
     <col min="7" max="7" width="35" style="9" customWidth="1"/>
     <col min="8" max="8" width="31.33203125" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="8" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="8" customWidth="1"/>
     <col min="13" max="13" width="18" style="8" customWidth="1"/>
     <col min="14" max="14" width="18.1640625" style="8" customWidth="1"/>
@@ -668,537 +738,255 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:15" s="5" customFormat="1">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="14">
+        <v>43854</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>TEXT(B8,"yyyy-mm-dd")</f>
+        <v>2020-01-24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="14">
+        <v>43854</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>TEXT(E8,"yyyy-mm-dd")</f>
+        <v>2020-01-24</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="14">
+        <v>43854</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f>TEXT(H8,"yyyy-mm-dd")</f>
+        <v>2020-01-24</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="14">
+        <v>43854</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>TEXT(K8,"yyyy-mm-dd")</f>
+        <v>2020-01-24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="14">
+        <v>43855</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>TEXT(B9,"yyyy-mm-dd")</f>
+        <v>2020-01-25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="14">
+        <v>43855</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>TEXT(E9,"yyyy-mm-dd")</f>
+        <v>2020-01-25</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="14">
+        <v>43855</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f>TEXT(H9,"yyyy-mm-dd")</f>
+        <v>2020-01-25</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="14">
+        <v>43855</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f>TEXT(K9,"yyyy-mm-dd")</f>
+        <v>2020-01-25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F19" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H19" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I19" t="s">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J19" t="s">
         <v>12</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K19" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O19" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="6">
-        <v>43854</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>TEXT(A7,"yyyy-mm-dd")</f>
-        <v>2020-01-24</v>
-      </c>
-      <c r="E7" s="8">
-        <v>25638</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1589.8</v>
-      </c>
-      <c r="G7" s="9">
-        <v>100076786899</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" ref="J7:J14" si="0">TEXT(A7,"yyyy-mm")</f>
-        <v>2020-01</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>5000</v>
-      </c>
-      <c r="M7" s="8">
-        <v>4003</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="6">
-        <v>43885</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" ref="D8:D14" si="1">TEXT(A8,"yyyy-mm-dd")</f>
-        <v>2020-02-24</v>
-      </c>
-      <c r="E8" s="8">
-        <v>22866</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1147.95</v>
-      </c>
-      <c r="G8" s="9">
-        <v>100076786900</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-02</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>5000</v>
-      </c>
-      <c r="M8" s="8">
-        <v>4003</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="6">
-        <v>43914</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-03-24</v>
-      </c>
-      <c r="E9" s="8">
-        <v>22371</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1070.93</v>
-      </c>
-      <c r="G9" s="9">
-        <v>100076786901</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-03</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>5000</v>
-      </c>
-      <c r="M9" s="8">
-        <v>4003</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="6">
-        <v>43945</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-04-24</v>
-      </c>
-      <c r="E10" s="8">
-        <v>22319</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1062.8399999999999</v>
-      </c>
-      <c r="G10" s="9">
-        <v>100076786902</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-04</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>5000</v>
-      </c>
-      <c r="M10" s="8">
-        <v>4003</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="6">
-        <v>43975</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-05-24</v>
-      </c>
-      <c r="E11" s="8">
-        <v>22300</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1059.8800000000001</v>
-      </c>
-      <c r="G11" s="9">
-        <v>100076786903</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-05</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>5000</v>
-      </c>
-      <c r="M11" s="8">
-        <v>4003</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="6">
-        <v>44006</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-06-24</v>
-      </c>
-      <c r="E12" s="8">
-        <v>22158</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1037.78</v>
-      </c>
-      <c r="G12" s="9">
-        <v>100076786904</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-06</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>5000</v>
-      </c>
-      <c r="M12" s="8">
-        <v>4003</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="6">
-        <v>44036</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-07-24</v>
-      </c>
-      <c r="E13" s="8">
-        <v>24569</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1412.94</v>
-      </c>
-      <c r="G13" s="9">
-        <v>100076786905</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-07</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>5000</v>
-      </c>
-      <c r="M13" s="8">
-        <v>4003</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="6">
-        <v>44067</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>2020-08-24</v>
-      </c>
-      <c r="E14" s="8">
-        <v>24688</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1431.45</v>
-      </c>
-      <c r="G14" s="9">
-        <v>100076786906</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-08</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>5000</v>
-      </c>
-      <c r="M14" s="8">
-        <v>4003</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="6">
-        <v>44098</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>TEXT(A15,"yyyy-mm-dd")</f>
-        <v>2020-09-24</v>
-      </c>
-      <c r="E15" s="8">
-        <v>26864</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1835</v>
-      </c>
-      <c r="G15" s="9">
-        <v>100076786907</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="str">
-        <f>TEXT(A15,"yyyy-mm")</f>
-        <v>2020-09</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="8">
-        <v>5001</v>
-      </c>
-      <c r="M15" s="8">
-        <v>4004</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="7"/>
-      <c r="K17"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="7"/>
-      <c r="K18"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="K19"/>
-      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>2019</v>
-      </c>
-      <c r="K20"/>
-      <c r="O20" s="8"/>
+      <c r="B20" s="5">
+        <v>2020</v>
+      </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="6">
-        <v>43489</v>
+        <v>43854</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
@@ -1208,13 +996,13 @@
       </c>
       <c r="D21" s="1" t="str">
         <f>TEXT(A21,"yyyy-mm-dd")</f>
-        <v>2019-01-24</v>
+        <v>2020-01-24</v>
       </c>
       <c r="E21" s="8">
-        <v>26837</v>
+        <v>25638</v>
       </c>
       <c r="F21" s="8">
-        <v>1829.6</v>
+        <v>1589.8</v>
       </c>
       <c r="G21" s="9">
         <v>100076786899</v>
@@ -1226,8 +1014,8 @@
         <v>20</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" ref="J21:J32" si="2">TEXT(A21,"yyyy-mm")</f>
-        <v>2019-01</v>
+        <f t="shared" ref="J21:J28" si="0">TEXT(A21,"yyyy-mm")</f>
+        <v>2020-01</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
@@ -1247,7 +1035,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="6">
-        <v>43520</v>
+        <v>43885</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -1256,14 +1044,14 @@
         <v>22</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" ref="D22:D32" si="3">TEXT(A22,"yyyy-mm-dd")</f>
-        <v>2019-02-24</v>
+        <f t="shared" ref="D22:D28" si="1">TEXT(A22,"yyyy-mm-dd")</f>
+        <v>2020-02-24</v>
       </c>
       <c r="E22" s="8">
-        <v>26682</v>
+        <v>22866</v>
       </c>
       <c r="F22" s="8">
-        <v>1798.6</v>
+        <v>1147.95</v>
       </c>
       <c r="G22" s="9">
         <v>100076786900</v>
@@ -1275,600 +1063,991 @@
         <v>20</v>
       </c>
       <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-02</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M22" s="8">
+        <v>4003</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="6">
+        <v>43914</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-03-24</v>
+      </c>
+      <c r="E23" s="8">
+        <v>22371</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1070.93</v>
+      </c>
+      <c r="G23" s="9">
+        <v>100076786901</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-03</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M23" s="8">
+        <v>4003</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="6">
+        <v>43945</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-04-24</v>
+      </c>
+      <c r="E24" s="8">
+        <v>22319</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1062.8399999999999</v>
+      </c>
+      <c r="G24" s="9">
+        <v>100076786902</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-04</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M24" s="8">
+        <v>4003</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="6">
+        <v>43975</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-05-24</v>
+      </c>
+      <c r="E25" s="8">
+        <v>22300</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1059.8800000000001</v>
+      </c>
+      <c r="G25" s="9">
+        <v>100076786903</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-05</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M25" s="8">
+        <v>4003</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="6">
+        <v>44006</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-06-24</v>
+      </c>
+      <c r="E26" s="8">
+        <v>22158</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1037.78</v>
+      </c>
+      <c r="G26" s="9">
+        <v>100076786904</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-06</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M26" s="8">
+        <v>4003</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="6">
+        <v>44036</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-07-24</v>
+      </c>
+      <c r="E27" s="8">
+        <v>24569</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1412.94</v>
+      </c>
+      <c r="G27" s="9">
+        <v>100076786905</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-07</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M27" s="8">
+        <v>4003</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="6">
+        <v>44067</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>2020-08-24</v>
+      </c>
+      <c r="E28" s="8">
+        <v>24688</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1431.45</v>
+      </c>
+      <c r="G28" s="9">
+        <v>100076786906</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-08</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M28" s="8">
+        <v>4003</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="6">
+        <v>44098</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>TEXT(A29,"yyyy-mm-dd")</f>
+        <v>2020-09-24</v>
+      </c>
+      <c r="E29" s="8">
+        <v>26864</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1835</v>
+      </c>
+      <c r="G29" s="9">
+        <v>100076786907</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="str">
+        <f>TEXT(A29,"yyyy-mm")</f>
+        <v>2020-09</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
+        <v>5001</v>
+      </c>
+      <c r="M29" s="8">
+        <v>4004</v>
+      </c>
+      <c r="N29" s="8">
+        <v>1</v>
+      </c>
+      <c r="O29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="4"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="7"/>
+      <c r="K31"/>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="7"/>
+      <c r="K32"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="K33"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>2019</v>
+      </c>
+      <c r="K34"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="6">
+        <v>43489</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>TEXT(A35,"yyyy-mm-dd")</f>
+        <v>2019-01-24</v>
+      </c>
+      <c r="E35" s="8">
+        <v>26837</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1829.6</v>
+      </c>
+      <c r="G35" s="9">
+        <v>100076786899</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" ref="J35:J46" si="2">TEXT(A35,"yyyy-mm")</f>
+        <v>2019-01</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M35" s="8">
+        <v>4003</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="6">
+        <v>43520</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" ref="D36:D46" si="3">TEXT(A36,"yyyy-mm-dd")</f>
+        <v>2019-02-24</v>
+      </c>
+      <c r="E36" s="8">
+        <v>26682</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1798.6</v>
+      </c>
+      <c r="G36" s="9">
+        <v>100076786900</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="str">
         <f t="shared" si="2"/>
         <v>2019-02</v>
       </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8">
         <v>5000</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M36" s="8">
         <v>4003</v>
       </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="6">
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="6">
         <v>43548</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="str">
+      <c r="D37" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-03-24</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E37" s="8">
         <v>27211</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F37" s="8">
         <v>1904.4</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G37" s="9">
         <v>100076786901</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H37" t="s">
         <v>23</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I37" t="s">
         <v>20</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J37" t="str">
         <f t="shared" si="2"/>
         <v>2019-03</v>
       </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
         <v>5000</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M37" s="8">
         <v>4003</v>
       </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="6">
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="6">
         <v>43579</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C38" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1" t="str">
+      <c r="D38" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-04-24</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E38" s="8">
         <v>26498</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F38" s="8">
         <v>1761.8</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G38" s="9">
         <v>100076786902</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H38" t="s">
         <v>23</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I38" t="s">
         <v>20</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J38" t="str">
         <f t="shared" si="2"/>
         <v>2019-04</v>
       </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
         <v>5000</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M38" s="8">
         <v>4003</v>
       </c>
-      <c r="N24" s="8">
-        <v>0</v>
-      </c>
-      <c r="O24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="6">
+      <c r="N38" s="8">
+        <v>0</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="6">
         <v>43609</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C39" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="1" t="str">
+      <c r="D39" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-05-24</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E39" s="8">
         <v>26653</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F39" s="8">
         <v>1792.8</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G39" s="9">
         <v>100076786903</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H39" t="s">
         <v>23</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I39" t="s">
         <v>20</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J39" t="str">
         <f t="shared" si="2"/>
         <v>2019-05</v>
       </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8">
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
         <v>5000</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M39" s="8">
         <v>4003</v>
       </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
-      <c r="O25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="6">
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="6">
         <v>43640</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C40" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="1" t="str">
+      <c r="D40" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-06-24</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E40" s="8">
         <v>27988</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F40" s="8">
         <v>2059.8000000000002</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G40" s="9">
         <v>100076786904</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H40" t="s">
         <v>23</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I40" t="s">
         <v>20</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J40" t="str">
         <f t="shared" si="2"/>
         <v>2019-06</v>
       </c>
-      <c r="K26" s="8">
-        <v>0</v>
-      </c>
-      <c r="L26" s="8">
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
         <v>5000</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M40" s="8">
         <v>4003</v>
       </c>
-      <c r="N26" s="8">
-        <v>0</v>
-      </c>
-      <c r="O26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="6">
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="6">
         <v>43670</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C41" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="1" t="str">
+      <c r="D41" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-07-24</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E41" s="8">
         <v>27135</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F41" s="8">
         <v>1889.2</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G41" s="9">
         <v>100076786905</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H41" t="s">
         <v>23</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I41" t="s">
         <v>20</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J41" t="str">
         <f t="shared" si="2"/>
         <v>2019-07</v>
       </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" s="8">
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8">
         <v>5000</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M41" s="8">
         <v>4003</v>
       </c>
-      <c r="N27" s="8">
-        <v>0</v>
-      </c>
-      <c r="O27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="6">
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="6">
         <v>43701</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C42" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="1" t="str">
+      <c r="D42" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-08-24</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E42" s="8">
         <v>27933</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F42" s="8">
         <v>2048.8000000000002</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G42" s="9">
         <v>100076786906</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H42" t="s">
         <v>23</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I42" t="s">
         <v>20</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J42" t="str">
         <f t="shared" si="2"/>
         <v>2019-08</v>
       </c>
-      <c r="K28" s="8">
-        <v>0</v>
-      </c>
-      <c r="L28" s="8">
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
         <v>5000</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M42" s="8">
         <v>4003</v>
       </c>
-      <c r="N28" s="8">
-        <v>0</v>
-      </c>
-      <c r="O28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="6">
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="6">
         <v>43732</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C43" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D43" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-09-24</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E43" s="8">
         <v>27400</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F43" s="8">
         <v>1942.2</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G43" s="9">
         <v>100076786907</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H43" t="s">
         <v>23</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I43" t="s">
         <v>20</v>
       </c>
-      <c r="J29" t="str">
+      <c r="J43" t="str">
         <f t="shared" si="2"/>
         <v>2019-09</v>
       </c>
-      <c r="K29" s="8">
-        <v>0</v>
-      </c>
-      <c r="L29" s="8">
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
         <v>5000</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M43" s="8">
         <v>4003</v>
       </c>
-      <c r="N29" s="8">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="6">
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="6">
         <v>43762</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C44" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1" t="str">
+      <c r="D44" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-10-24</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E44" s="8">
         <v>27968</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F44" s="8">
         <v>2055.8000000000002</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G44" s="9">
         <v>100076786908</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H44" t="s">
         <v>23</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I44" t="s">
         <v>20</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J44" t="str">
         <f t="shared" si="2"/>
         <v>2019-10</v>
       </c>
-      <c r="K30" s="8">
-        <v>0</v>
-      </c>
-      <c r="L30" s="8">
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
         <v>5000</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M44" s="8">
         <v>4003</v>
       </c>
-      <c r="N30" s="8">
-        <v>0</v>
-      </c>
-      <c r="O30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="6">
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="6">
         <v>43793</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C45" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="1" t="str">
+      <c r="D45" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-11-24</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E45" s="8">
         <v>27936</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F45" s="8">
         <v>2049.4</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G45" s="9">
         <v>100076786909</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H45" t="s">
         <v>23</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I45" t="s">
         <v>20</v>
       </c>
-      <c r="J31" t="str">
+      <c r="J45" t="str">
         <f t="shared" si="2"/>
         <v>2019-11</v>
       </c>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-      <c r="L31" s="8">
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
         <v>5000</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M45" s="8">
         <v>4003</v>
       </c>
-      <c r="N31" s="8">
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="6">
+      <c r="N45" s="8">
+        <v>0</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="6">
         <v>43823</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C46" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="1" t="str">
+      <c r="D46" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-12-24</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E46" s="8">
         <v>32681</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F46" s="8">
         <v>2998.4</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G46" s="9">
         <v>100076786910</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H46" t="s">
         <v>23</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I46" t="s">
         <v>20</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J46" t="str">
         <f t="shared" si="2"/>
         <v>2019-12</v>
       </c>
-      <c r="K32" s="8">
-        <v>0</v>
-      </c>
-      <c r="L32" s="8">
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
         <v>5000</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M46" s="8">
         <v>4003</v>
       </c>
-      <c r="N32" s="8">
-        <v>0</v>
-      </c>
-      <c r="O32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37"/>
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="K38"/>
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="6"/>
-      <c r="B39" s="3"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="O39" s="8"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="6"/>
-      <c r="B40" s="3"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="O40" s="8"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="6"/>
-      <c r="B41" s="3"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="O41" s="8"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="6"/>
-      <c r="B42" s="3"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="O42" s="8"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="6"/>
-      <c r="B43" s="3"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="O43" s="8"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="6"/>
-      <c r="B44" s="3"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="O44" s="8"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="6"/>
-      <c r="B45" s="3"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="O45" s="8"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="6"/>
-      <c r="B46" s="3"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="O46" s="8"/>
+      <c r="N46" s="8">
+        <v>0</v>
+      </c>
+      <c r="O46" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="6"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="4"/>
       <c r="D47" s="1"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF8DD64-EA11-FE40-964C-E14458B03BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506F93F-DF73-9448-BFBC-384664AF0ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="4100" windowWidth="22460" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="4020" yWindow="460" windowWidth="22460" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="伟强" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
   <si>
     <t>姓名</t>
   </si>
@@ -201,27 +201,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>统一社会信用代码1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>333</t>
+    <t>北京撒上点有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京撒上点试试有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京方面上课了有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀定慧桥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +226,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +245,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -291,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,6 +335,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6B88E-DA55-AF43-AAC5-0097E9F8D4F2}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -737,6 +746,9 @@
       <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
@@ -771,79 +783,71 @@
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>50</v>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>51</v>
+      <c r="E5" t="s">
+        <v>48</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>52</v>
+      <c r="H5" t="s">
+        <v>49</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>53</v>
+      <c r="K5" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>48</v>
+      <c r="B6" s="9">
+        <v>100076786900</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>39</v>
+      <c r="E6" s="9">
+        <v>100076786900</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>39</v>
+      <c r="H6" s="9">
+        <v>100076786900</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>39</v>
+      <c r="K6" s="16">
+        <v>100076786900</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="B7" s="13"/>
       <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="E7" s="13"/>
       <c r="G7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="H7" s="13"/>
       <c r="J7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1">
       <c r="A8" s="5" t="s">
@@ -1005,7 +1009,7 @@
         <v>1589.8</v>
       </c>
       <c r="G21" s="9">
-        <v>100076786899</v>
+        <v>100076786900</v>
       </c>
       <c r="H21" t="s">
         <v>23</v>

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506F93F-DF73-9448-BFBC-384664AF0ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB11235-21FA-3C46-9931-E25D99336A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="460" windowWidth="22460" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="26200" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="伟强" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="57">
   <si>
     <t>姓名</t>
   </si>
@@ -214,6 +214,26 @@
   </si>
   <si>
     <t>北京市海淀定慧桥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否默认登陆（1是登陆；0是未登陆）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6B88E-DA55-AF43-AAC5-0097E9F8D4F2}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -681,9 +701,11 @@
     <col min="13" max="13" width="18" style="8" customWidth="1"/>
     <col min="14" max="14" width="18.1640625" style="8" customWidth="1"/>
     <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,8 +751,17 @@
       <c r="O1" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1">
+      <c r="P1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -746,11 +777,47 @@
       <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="5" customFormat="1">
+      <c r="H2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -779,7 +846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="5" customFormat="1">
+    <row r="5" spans="1:18" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -805,7 +872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="5" customFormat="1">
+    <row r="6" spans="1:18" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -831,7 +898,7 @@
         <v>100076786900</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="5" customFormat="1">
+    <row r="7" spans="1:18" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -849,7 +916,7 @@
       </c>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:15" s="5" customFormat="1">
+    <row r="8" spans="1:18" s="5" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -891,7 +958,7 @@
         <v>2020-01-24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="5" customFormat="1">
+    <row r="9" spans="1:18" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB11235-21FA-3C46-9931-E25D99336A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F7F46-151D-E64F-9445-655DEB028CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="26200" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="17380" yWindow="9120" windowWidth="26200" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="伟强" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
   <si>
     <t>姓名</t>
   </si>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6B88E-DA55-AF43-AAC5-0097E9F8D4F2}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -777,36 +777,18 @@
       <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
+      <c r="F2"/>
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
       <c r="P2" s="5" t="s">
         <v>25</v>
       </c>

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F7F46-151D-E64F-9445-655DEB028CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFA5BE3-1BA1-B744-A854-4845C3590DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17380" yWindow="9120" windowWidth="26200" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="17240" yWindow="8580" windowWidth="26200" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="伟强" sheetId="3" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
   <si>
     <t>姓名</t>
   </si>
@@ -96,69 +90,10 @@
     <t>其他</t>
   </si>
   <si>
-    <t>男</t>
-  </si>
-  <si>
     <t>北京奇虎科技有限公司</t>
   </si>
   <si>
     <t>国家税务总局北京市朝阳区税务局</t>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>143232197602234000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100076786900</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>国籍（地区）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>户籍所在地（所在地址）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>户籍所在地（详细地址）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经常居住地（所在地址）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经常居住地（详细地址）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系地址（所在地址）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系地址（详细地址）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>民族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁伟强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公司名称</t>
@@ -181,14 +116,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第4家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第3家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>第2家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,44 +124,77 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>北京撒上点有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>北京撒上点试试有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京方面上课了有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市海淀定慧桥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>100076786900</t>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <t>国籍（地区）</t>
+  </si>
+  <si>
+    <t>户籍所在地（所在地址）</t>
+  </si>
+  <si>
+    <t>户籍所在地（详细地址）</t>
+  </si>
+  <si>
+    <t>经常居住地（所在地址）</t>
+  </si>
+  <si>
+    <t>经常居住地（详细地址）</t>
+  </si>
+  <si>
+    <t>联系地址（所在地址）</t>
+  </si>
+  <si>
+    <t>联系地址（详细地址）</t>
+  </si>
+  <si>
+    <t>学历</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
   </si>
   <si>
     <t>账户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否默认登陆（1是登陆；0是未登陆）</t>
+  </si>
+  <si>
+    <t>关登芝</t>
+  </si>
+  <si>
+    <t>19993589789</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>513028196906293740</t>
+  </si>
+  <si>
+    <t>四川省平昌县白衣镇大河嘴街道二组74号</t>
+  </si>
+  <si>
+    <t>143232197602234000</t>
   </si>
   <si>
     <t>123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否默认登陆（1是登陆；0是未登陆）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -311,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,6 +325,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6B88E-DA55-AF43-AAC5-0097E9F8D4F2}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -716,70 +679,70 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="12">
-        <v>18210426033</v>
+        <v>46</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.21100004007442E+17</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -790,117 +753,78 @@
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="I4"/>
+      <c r="L4"/>
     </row>
     <row r="5" spans="1:18" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>50</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H5"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:18" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="9">
-        <v>100076786900</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="9">
-        <v>100076786900</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="9">
-        <v>100076786900</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="16">
-        <v>100076786900</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:18" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B7" s="13"/>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="G7" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" s="13"/>
-      <c r="J7" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:18" s="5" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B8" s="14">
         <v>43854</v>
@@ -910,7 +834,7 @@
         <v>2020-01-24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E8" s="14">
         <v>43854</v>
@@ -919,30 +843,14 @@
         <f>TEXT(E8,"yyyy-mm-dd")</f>
         <v>2020-01-24</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="14">
-        <v>43854</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f>TEXT(H8,"yyyy-mm-dd")</f>
-        <v>2020-01-24</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="14">
-        <v>43854</v>
-      </c>
-      <c r="L8" s="1" t="str">
-        <f>TEXT(K8,"yyyy-mm-dd")</f>
-        <v>2020-01-24</v>
-      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:18" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B9" s="14">
         <v>43855</v>
@@ -952,7 +860,7 @@
         <v>2020-01-25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E9" s="14">
         <v>43855</v>
@@ -961,26 +869,10 @@
         <f>TEXT(E9,"yyyy-mm-dd")</f>
         <v>2020-01-25</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="14">
-        <v>43855</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f>TEXT(H9,"yyyy-mm-dd")</f>
-        <v>2020-01-25</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="14">
-        <v>43855</v>
-      </c>
-      <c r="L9" s="1" t="str">
-        <f>TEXT(K9,"yyyy-mm-dd")</f>
-        <v>2020-01-25</v>
-      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
@@ -1045,7 +937,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="str">
         <f>TEXT(A21,"yyyy-mm-dd")</f>
@@ -1057,11 +949,11 @@
       <c r="F21" s="8">
         <v>1589.8</v>
       </c>
-      <c r="G21" s="9">
-        <v>100076786900</v>
+      <c r="G21" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
@@ -1094,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" ref="D22:D28" si="1">TEXT(A22,"yyyy-mm-dd")</f>
@@ -1106,11 +998,11 @@
       <c r="F22" s="8">
         <v>1147.95</v>
       </c>
-      <c r="G22" s="9">
-        <v>100076786900</v>
+      <c r="G22" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
         <v>20</v>
@@ -1143,7 +1035,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1155,11 +1047,11 @@
       <c r="F23" s="8">
         <v>1070.93</v>
       </c>
-      <c r="G23" s="9">
-        <v>100076786901</v>
+      <c r="G23" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
@@ -1192,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1204,11 +1096,11 @@
       <c r="F24" s="8">
         <v>1062.8399999999999</v>
       </c>
-      <c r="G24" s="9">
-        <v>100076786902</v>
+      <c r="G24" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -1241,7 +1133,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1253,11 +1145,11 @@
       <c r="F25" s="8">
         <v>1059.8800000000001</v>
       </c>
-      <c r="G25" s="9">
-        <v>100076786903</v>
+      <c r="G25" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
@@ -1290,7 +1182,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1302,11 +1194,11 @@
       <c r="F26" s="8">
         <v>1037.78</v>
       </c>
-      <c r="G26" s="9">
-        <v>100076786904</v>
+      <c r="G26" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
@@ -1339,7 +1231,7 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1351,11 +1243,11 @@
       <c r="F27" s="8">
         <v>1412.94</v>
       </c>
-      <c r="G27" s="9">
-        <v>100076786905</v>
+      <c r="G27" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" t="s">
         <v>20</v>
@@ -1388,7 +1280,7 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1400,11 +1292,11 @@
       <c r="F28" s="8">
         <v>1431.45</v>
       </c>
-      <c r="G28" s="9">
-        <v>100076786906</v>
+      <c r="G28" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
@@ -1437,7 +1329,7 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="str">
         <f>TEXT(A29,"yyyy-mm-dd")</f>
@@ -1449,11 +1341,11 @@
       <c r="F29" s="8">
         <v>1835</v>
       </c>
-      <c r="G29" s="9">
-        <v>100076786907</v>
+      <c r="G29" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s">
         <v>20</v>
@@ -1484,19 +1376,23 @@
       <c r="D30" s="1"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
+      <c r="G30" s="5"/>
       <c r="O30" s="8"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="7"/>
+      <c r="G31" s="5"/>
       <c r="K31"/>
       <c r="O31" s="8"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="7"/>
+      <c r="G32" s="5"/>
       <c r="K32"/>
       <c r="O32" s="8"/>
     </row>
     <row r="33" spans="1:15">
+      <c r="G33" s="5"/>
       <c r="K33"/>
       <c r="O33" s="8"/>
     </row>
@@ -1507,6 +1403,7 @@
       <c r="B34">
         <v>2019</v>
       </c>
+      <c r="G34" s="5"/>
       <c r="K34"/>
       <c r="O34" s="8"/>
     </row>
@@ -1518,7 +1415,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="str">
         <f>TEXT(A35,"yyyy-mm-dd")</f>
@@ -1530,11 +1427,11 @@
       <c r="F35" s="8">
         <v>1829.6</v>
       </c>
-      <c r="G35" s="9">
-        <v>100076786899</v>
+      <c r="G35" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
         <v>20</v>
@@ -1567,7 +1464,7 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" ref="D36:D46" si="3">TEXT(A36,"yyyy-mm-dd")</f>
@@ -1579,11 +1476,11 @@
       <c r="F36" s="8">
         <v>1798.6</v>
       </c>
-      <c r="G36" s="9">
-        <v>100076786900</v>
+      <c r="G36" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
@@ -1616,7 +1513,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1628,11 +1525,11 @@
       <c r="F37" s="8">
         <v>1904.4</v>
       </c>
-      <c r="G37" s="9">
-        <v>100076786901</v>
+      <c r="G37" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
         <v>20</v>
@@ -1665,7 +1562,7 @@
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1677,11 +1574,11 @@
       <c r="F38" s="8">
         <v>1761.8</v>
       </c>
-      <c r="G38" s="9">
-        <v>100076786902</v>
+      <c r="G38" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
@@ -1714,7 +1611,7 @@
         <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1726,11 +1623,11 @@
       <c r="F39" s="8">
         <v>1792.8</v>
       </c>
-      <c r="G39" s="9">
-        <v>100076786903</v>
+      <c r="G39" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s">
         <v>20</v>
@@ -1763,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1775,11 +1672,11 @@
       <c r="F40" s="8">
         <v>2059.8000000000002</v>
       </c>
-      <c r="G40" s="9">
-        <v>100076786904</v>
+      <c r="G40" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
@@ -1812,7 +1709,7 @@
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1824,11 +1721,11 @@
       <c r="F41" s="8">
         <v>1889.2</v>
       </c>
-      <c r="G41" s="9">
-        <v>100076786905</v>
+      <c r="G41" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
         <v>20</v>
@@ -1861,7 +1758,7 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1873,11 +1770,11 @@
       <c r="F42" s="8">
         <v>2048.8000000000002</v>
       </c>
-      <c r="G42" s="9">
-        <v>100076786906</v>
+      <c r="G42" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
         <v>20</v>
@@ -1910,7 +1807,7 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1922,11 +1819,11 @@
       <c r="F43" s="8">
         <v>1942.2</v>
       </c>
-      <c r="G43" s="9">
-        <v>100076786907</v>
+      <c r="G43" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
         <v>20</v>
@@ -1959,7 +1856,7 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1971,11 +1868,11 @@
       <c r="F44" s="8">
         <v>2055.8000000000002</v>
       </c>
-      <c r="G44" s="9">
-        <v>100076786908</v>
+      <c r="G44" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
         <v>20</v>
@@ -2008,7 +1905,7 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2020,11 +1917,11 @@
       <c r="F45" s="8">
         <v>2049.4</v>
       </c>
-      <c r="G45" s="9">
-        <v>100076786909</v>
+      <c r="G45" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
         <v>20</v>
@@ -2057,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2069,11 +1966,11 @@
       <c r="F46" s="8">
         <v>2998.4</v>
       </c>
-      <c r="G46" s="9">
-        <v>100076786910</v>
+      <c r="G46" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
         <v>20</v>

--- a/__encodeapk/text_02.xlsx
+++ b/__encodeapk/text_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFA5BE3-1BA1-B744-A854-4845C3590DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B39D56-C63A-6E4A-931A-3235DBF09C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17240" yWindow="8580" windowWidth="26200" windowHeight="15620" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
+    <workbookView xWindow="3240" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{9FC3D8DA-A39C-A641-9DEA-C14B940C4328}"/>
   </bookViews>
   <sheets>
     <sheet name="伟强" sheetId="3" r:id="rId1"/>
@@ -20,12 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="55">
   <si>
     <t>姓名</t>
   </si>
@@ -195,6 +201,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>2021</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -237,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,12 +257,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,12 +304,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -643,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B6B88E-DA55-AF43-AAC5-0097E9F8D4F2}">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -728,7 +726,7 @@
       <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -792,7 +790,7 @@
         <v>30</v>
       </c>
       <c r="H5"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:18" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
@@ -808,25 +806,25 @@
         <v>31</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:18" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="K7" s="17"/>
+      <c r="E7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:18" s="5" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>43854</v>
       </c>
       <c r="C8" s="1" t="str">
@@ -836,23 +834,23 @@
       <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>43854</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>TEXT(E8,"yyyy-mm-dd")</f>
         <v>2020-01-24</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="1"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:18" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>43855</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -862,16 +860,16 @@
       <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>43855</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>TEXT(E9,"yyyy-mm-dd")</f>
         <v>2020-01-25</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="1"/>
     </row>
     <row r="19" spans="1:15">
@@ -925,1121 +923,1143 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="G23" s="5"/>
+      <c r="K23"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5">
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="6">
+    <row r="26" spans="1:15">
+      <c r="A26" s="6">
         <v>43854</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f>TEXT(A21,"yyyy-mm-dd")</f>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>TEXT(A26,"yyyy-mm-dd")</f>
         <v>2020-01-24</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E26" s="8">
         <v>25638</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F26" s="8">
         <v>1589.8</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
         <v>22</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I26" t="s">
         <v>20</v>
       </c>
-      <c r="J21" t="str">
-        <f t="shared" ref="J21:J28" si="0">TEXT(A21,"yyyy-mm")</f>
+      <c r="J26" t="str">
+        <f t="shared" ref="J26:J33" si="0">TEXT(A26,"yyyy-mm")</f>
         <v>2020-01</v>
       </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
         <v>5000</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M26" s="8">
         <v>4003</v>
       </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="6">
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="6">
         <v>43885</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f t="shared" ref="D22:D28" si="1">TEXT(A22,"yyyy-mm-dd")</f>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" ref="D27:D33" si="1">TEXT(A27,"yyyy-mm-dd")</f>
         <v>2020-02-24</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E27" s="8">
         <v>22866</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F27" s="8">
         <v>1147.95</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
         <v>22</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="J22" t="str">
+      <c r="J27" t="str">
         <f t="shared" si="0"/>
         <v>2020-02</v>
       </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
         <v>5000</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M27" s="8">
         <v>4003</v>
       </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="6">
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="6">
         <v>43914</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1" t="str">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-03-24</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E28" s="8">
         <v>22371</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F28" s="8">
         <v>1070.93</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
         <v>22</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I28" t="s">
         <v>20</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J28" t="str">
         <f t="shared" si="0"/>
         <v>2020-03</v>
       </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
         <v>5000</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M28" s="8">
         <v>4003</v>
       </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="6">
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="6">
         <v>43945</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="1" t="str">
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-04-24</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E29" s="8">
         <v>22319</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F29" s="8">
         <v>1062.8399999999999</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
         <v>22</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I29" t="s">
         <v>20</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J29" t="str">
         <f t="shared" si="0"/>
         <v>2020-04</v>
       </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
         <v>5000</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M29" s="8">
         <v>4003</v>
       </c>
-      <c r="N24" s="8">
-        <v>0</v>
-      </c>
-      <c r="O24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="6">
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="6">
         <v>43975</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="1" t="str">
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-05-24</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E30" s="8">
         <v>22300</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F30" s="8">
         <v>1059.8800000000001</v>
       </c>
-      <c r="G25" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
         <v>22</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I30" t="s">
         <v>20</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J30" t="str">
         <f t="shared" si="0"/>
         <v>2020-05</v>
       </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8">
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
         <v>5000</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M30" s="8">
         <v>4003</v>
       </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
-      <c r="O25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="6">
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="6">
         <v>44006</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="1" t="str">
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-06-24</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E31" s="8">
         <v>22158</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F31" s="8">
         <v>1037.78</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
         <v>22</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I31" t="s">
         <v>20</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="0"/>
         <v>2020-06</v>
       </c>
-      <c r="K26" s="8">
-        <v>0</v>
-      </c>
-      <c r="L26" s="8">
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
         <v>5000</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M31" s="8">
         <v>4003</v>
       </c>
-      <c r="N26" s="8">
-        <v>0</v>
-      </c>
-      <c r="O26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="6">
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="6">
         <v>44036</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="1" t="str">
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-07-24</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E32" s="8">
         <v>24569</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F32" s="8">
         <v>1412.94</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
         <v>22</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J32" t="str">
         <f t="shared" si="0"/>
         <v>2020-07</v>
       </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" s="8">
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
         <v>5000</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M32" s="8">
         <v>4003</v>
       </c>
-      <c r="N27" s="8">
-        <v>0</v>
-      </c>
-      <c r="O27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="6">
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="6">
         <v>44067</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1" t="str">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2020-08-24</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E33" s="8">
         <v>24688</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F33" s="8">
         <v>1431.45</v>
       </c>
-      <c r="G28" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
         <v>22</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I33" t="s">
         <v>20</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J33" t="str">
         <f t="shared" si="0"/>
         <v>2020-08</v>
       </c>
-      <c r="K28" s="8">
-        <v>0</v>
-      </c>
-      <c r="L28" s="8">
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
         <v>5000</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M33" s="8">
         <v>4003</v>
       </c>
-      <c r="N28" s="8">
-        <v>0</v>
-      </c>
-      <c r="O28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="6">
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="6">
         <v>44098</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f>TEXT(A29,"yyyy-mm-dd")</f>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>TEXT(A34,"yyyy-mm-dd")</f>
         <v>2020-09-24</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E34" s="8">
         <v>26864</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F34" s="8">
         <v>1835</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
         <v>22</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I34" t="s">
         <v>20</v>
       </c>
-      <c r="J29" t="str">
-        <f>TEXT(A29,"yyyy-mm")</f>
+      <c r="J34" t="str">
+        <f>TEXT(A34,"yyyy-mm")</f>
         <v>2020-09</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K34" s="8">
         <v>1</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L34" s="8">
         <v>5001</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M34" s="8">
         <v>4004</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N34" s="8">
         <v>1</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O34" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="5"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="7"/>
-      <c r="G31" s="5"/>
-      <c r="K31"/>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="7"/>
-      <c r="G32" s="5"/>
-      <c r="K32"/>
-      <c r="O32" s="8"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="G33" s="5"/>
-      <c r="K33"/>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
+    <row r="35" spans="1:15">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="5"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="7"/>
+      <c r="G36" s="5"/>
+      <c r="K36"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="7"/>
+      <c r="G37" s="5"/>
+      <c r="K37"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="G38" s="5"/>
+      <c r="K38"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
         <v>18</v>
       </c>
-      <c r="B34">
+      <c r="B39">
         <v>2019</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="K34"/>
-      <c r="O34" s="8"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="6">
+      <c r="G39" s="5"/>
+      <c r="K39"/>
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="6">
         <v>43489</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <f>TEXT(A35,"yyyy-mm-dd")</f>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>TEXT(A40,"yyyy-mm-dd")</f>
         <v>2019-01-24</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E40" s="8">
         <v>26837</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F40" s="8">
         <v>1829.6</v>
       </c>
-      <c r="G35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
         <v>22</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I40" t="s">
         <v>20</v>
       </c>
-      <c r="J35" t="str">
-        <f t="shared" ref="J35:J46" si="2">TEXT(A35,"yyyy-mm")</f>
+      <c r="J40" t="str">
+        <f t="shared" ref="J40:J51" si="2">TEXT(A40,"yyyy-mm")</f>
         <v>2019-01</v>
       </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-      <c r="L35" s="8">
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
         <v>5000</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M40" s="8">
         <v>4003</v>
       </c>
-      <c r="N35" s="8">
-        <v>0</v>
-      </c>
-      <c r="O35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="6">
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="6">
         <v>43520</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" ref="D36:D46" si="3">TEXT(A36,"yyyy-mm-dd")</f>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" ref="D41:D51" si="3">TEXT(A41,"yyyy-mm-dd")</f>
         <v>2019-02-24</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E41" s="8">
         <v>26682</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F41" s="8">
         <v>1798.6</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s">
         <v>22</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I41" t="s">
         <v>20</v>
       </c>
-      <c r="J36" t="str">
+      <c r="J41" t="str">
         <f t="shared" si="2"/>
         <v>2019-02</v>
       </c>
-      <c r="K36" s="8">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8">
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8">
         <v>5000</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M41" s="8">
         <v>4003</v>
       </c>
-      <c r="N36" s="8">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="6">
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="6">
         <v>43548</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="1" t="str">
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-03-24</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E42" s="8">
         <v>27211</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F42" s="8">
         <v>1904.4</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G42" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s">
         <v>22</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I42" t="s">
         <v>20</v>
       </c>
-      <c r="J37" t="str">
+      <c r="J42" t="str">
         <f t="shared" si="2"/>
         <v>2019-03</v>
       </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="8">
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
         <v>5000</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M42" s="8">
         <v>4003</v>
       </c>
-      <c r="N37" s="8">
-        <v>0</v>
-      </c>
-      <c r="O37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="6">
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="6">
         <v>43579</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="1" t="str">
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-04-24</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E43" s="8">
         <v>26498</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F43" s="8">
         <v>1761.8</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G43" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
         <v>22</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I43" t="s">
         <v>20</v>
       </c>
-      <c r="J38" t="str">
+      <c r="J43" t="str">
         <f t="shared" si="2"/>
         <v>2019-04</v>
       </c>
-      <c r="K38" s="8">
-        <v>0</v>
-      </c>
-      <c r="L38" s="8">
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
         <v>5000</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M43" s="8">
         <v>4003</v>
       </c>
-      <c r="N38" s="8">
-        <v>0</v>
-      </c>
-      <c r="O38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="6">
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="6">
         <v>43609</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="1" t="str">
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-05-24</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E44" s="8">
         <v>26653</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F44" s="8">
         <v>1792.8</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G44" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s">
         <v>22</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I44" t="s">
         <v>20</v>
       </c>
-      <c r="J39" t="str">
+      <c r="J44" t="str">
         <f t="shared" si="2"/>
         <v>2019-05</v>
       </c>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
-      <c r="L39" s="8">
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
         <v>5000</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M44" s="8">
         <v>4003</v>
       </c>
-      <c r="N39" s="8">
-        <v>0</v>
-      </c>
-      <c r="O39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="6">
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="6">
         <v>43640</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="1" t="str">
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-06-24</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E45" s="8">
         <v>27988</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F45" s="8">
         <v>2059.8000000000002</v>
       </c>
-      <c r="G40" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G45" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" t="s">
         <v>22</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I45" t="s">
         <v>20</v>
       </c>
-      <c r="J40" t="str">
+      <c r="J45" t="str">
         <f t="shared" si="2"/>
         <v>2019-06</v>
       </c>
-      <c r="K40" s="8">
-        <v>0</v>
-      </c>
-      <c r="L40" s="8">
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
         <v>5000</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M45" s="8">
         <v>4003</v>
       </c>
-      <c r="N40" s="8">
-        <v>0</v>
-      </c>
-      <c r="O40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="6">
+      <c r="N45" s="8">
+        <v>0</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="6">
         <v>43670</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="1" t="str">
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-07-24</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E46" s="8">
         <v>27135</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F46" s="8">
         <v>1889.2</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G46" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s">
         <v>22</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I46" t="s">
         <v>20</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J46" t="str">
         <f t="shared" si="2"/>
         <v>2019-07</v>
       </c>
-      <c r="K41" s="8">
-        <v>0</v>
-      </c>
-      <c r="L41" s="8">
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
         <v>5000</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M46" s="8">
         <v>4003</v>
       </c>
-      <c r="N41" s="8">
-        <v>0</v>
-      </c>
-      <c r="O41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="6">
+      <c r="N46" s="8">
+        <v>0</v>
+      </c>
+      <c r="O46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="6">
         <v>43701</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="1" t="str">
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-08-24</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E47" s="8">
         <v>27933</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F47" s="8">
         <v>2048.8000000000002</v>
       </c>
-      <c r="G42" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G47" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s">
         <v>22</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I47" t="s">
         <v>20</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J47" t="str">
         <f t="shared" si="2"/>
         <v>2019-08</v>
       </c>
-      <c r="K42" s="8">
-        <v>0</v>
-      </c>
-      <c r="L42" s="8">
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
         <v>5000</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M47" s="8">
         <v>4003</v>
       </c>
-      <c r="N42" s="8">
-        <v>0</v>
-      </c>
-      <c r="O42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="6">
+      <c r="N47" s="8">
+        <v>0</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="6">
         <v>43732</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="1" t="str">
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-09-24</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E48" s="8">
         <v>27400</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F48" s="8">
         <v>1942.2</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G48" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s">
         <v>22</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I48" t="s">
         <v>20</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J48" t="str">
         <f t="shared" si="2"/>
         <v>2019-09</v>
       </c>
-      <c r="K43" s="8">
-        <v>0</v>
-      </c>
-      <c r="L43" s="8">
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
         <v>5000</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M48" s="8">
         <v>4003</v>
       </c>
-      <c r="N43" s="8">
-        <v>0</v>
-      </c>
-      <c r="O43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="6">
+      <c r="N48" s="8">
+        <v>0</v>
+      </c>
+      <c r="O48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="6">
         <v>43762</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="1" t="str">
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-10-24</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E49" s="8">
         <v>27968</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F49" s="8">
         <v>2055.8000000000002</v>
       </c>
-      <c r="G44" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G49" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" t="s">
         <v>22</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I49" t="s">
         <v>20</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J49" t="str">
         <f t="shared" si="2"/>
         <v>2019-10</v>
       </c>
-      <c r="K44" s="8">
-        <v>0</v>
-      </c>
-      <c r="L44" s="8">
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
         <v>5000</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M49" s="8">
         <v>4003</v>
       </c>
-      <c r="N44" s="8">
-        <v>0</v>
-      </c>
-      <c r="O44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="6">
+      <c r="N49" s="8">
+        <v>0</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="6">
         <v>43793</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="1" t="str">
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-11-24</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E50" s="8">
         <v>27936</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F50" s="8">
         <v>2049.4</v>
       </c>
-      <c r="G45" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G50" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s">
         <v>22</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I50" t="s">
         <v>20</v>
       </c>
-      <c r="J45" t="str">
+      <c r="J50" t="str">
         <f t="shared" si="2"/>
         <v>2019-11</v>
       </c>
-      <c r="K45" s="8">
-        <v>0</v>
-      </c>
-      <c r="L45" s="8">
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
         <v>5000</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M50" s="8">
         <v>4003</v>
       </c>
-      <c r="N45" s="8">
-        <v>0</v>
-      </c>
-      <c r="O45" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="6">
+      <c r="N50" s="8">
+        <v>0</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="6">
         <v>43823</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="1" t="str">
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2019-12-24</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E51" s="8">
         <v>32681</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F51" s="8">
         <v>2998.4</v>
       </c>
-      <c r="G46" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G51" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s">
         <v>22</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I51" t="s">
         <v>20</v>
       </c>
-      <c r="J46" t="str">
+      <c r="J51" t="str">
         <f t="shared" si="2"/>
         <v>2019-12</v>
       </c>
-      <c r="K46" s="8">
-        <v>0</v>
-      </c>
-      <c r="L46" s="8">
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
         <v>5000</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M51" s="8">
         <v>4003</v>
       </c>
-      <c r="N46" s="8">
-        <v>0</v>
-      </c>
-      <c r="O46" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="6"/>
-      <c r="B47" s="4"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="O47" s="8"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="6"/>
-      <c r="B48" s="3"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="O48" s="8"/>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="6"/>
-      <c r="B49" s="3"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="O49" s="8"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="6"/>
-      <c r="B50" s="3"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="6"/>
-      <c r="B51" s="10"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="B52" s="11"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="B53" s="11"/>
+      <c r="N51" s="8">
+        <v>0</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
